--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864680B5-0AC3-4873-A938-C0070B167093}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="合集" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>关卡</t>
   </si>
@@ -683,12 +684,110 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x009E辟邪玉佩
+0x00A1清神净玉
+0x00A4护命神符
+0x009B龙骨项链</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x00B9佛珠
+0x00BE赤练火铜
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x01C6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玄武甲彀
+黑玉蛇戒
+密法護印
+瑯環玉璧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫金劍
+朱綸祭劍
+朱纓槍
+斬馬刀
+素綢靈索
+鐵禪杖
+鎖子甲
+金縷甲
+綴玉華裝
+黃綾僧衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01C6玄武甲彀
+黑玉蛇戒
+密法護印
+瑯環玉璧
+火紋金釵
+琉璃星簪
+冰凜銀鐲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0x00DC金疮药
+0x00E5龙涎清血丹
+0x00E6通脉补心丸
+0x00E7绮罗天香
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x01BF乌草
+大补丸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,6 +831,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1072,32 +1178,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.08203125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" thickTop="1" thickBot="1">
+    <row r="1" spans="1:10" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="129" thickTop="1">
+    <row r="2" spans="1:10" ht="126.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -1161,7 +1267,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5">
+    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -1181,7 +1287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.5">
+    <row r="4" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
@@ -1201,7 +1307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="128.25">
+    <row r="5" spans="1:10" ht="126" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>51</v>
       </c>
@@ -1233,7 +1339,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="142.5">
+    <row r="6" spans="1:10" ht="140" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -1265,7 +1371,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.5">
+    <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
@@ -1289,7 +1395,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="185.25">
+    <row r="8" spans="1:10" ht="182" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
@@ -1321,7 +1427,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="228">
+    <row r="9" spans="1:10" ht="224" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>55</v>
       </c>
@@ -1353,7 +1459,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.5">
+    <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
@@ -1364,7 +1470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.5">
+    <row r="11" spans="1:10" ht="140" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -1377,8 +1483,11 @@
       <c r="G11" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="28.5">
+      <c r="I11" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>58</v>
       </c>
@@ -1392,7 +1501,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.5">
+    <row r="13" spans="1:10" ht="140" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>59</v>
       </c>
@@ -1405,8 +1514,17 @@
       <c r="G13" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="28.5">
+      <c r="H13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>60</v>
       </c>
@@ -1417,7 +1535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.5">
+    <row r="15" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
@@ -1431,7 +1549,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.5">
+    <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>62</v>
       </c>
@@ -1442,7 +1560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.5">
+    <row r="17" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>63</v>
       </c>
@@ -1456,7 +1574,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.5">
+    <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
@@ -1470,7 +1588,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.5">
+    <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>65</v>
       </c>
@@ -1481,7 +1599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.5">
+    <row r="20" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>66</v>
       </c>
@@ -1492,7 +1610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.5">
+    <row r="21" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
@@ -1506,7 +1624,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5">
+    <row r="22" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>68</v>
       </c>
@@ -1517,7 +1635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.5">
+    <row r="23" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>69</v>
       </c>
@@ -1528,7 +1646,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.5">
+    <row r="24" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>70</v>
       </c>
@@ -1542,7 +1660,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="42.75">
+    <row r="25" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
@@ -1550,7 +1668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.5">
+    <row r="26" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>72</v>
       </c>
@@ -1558,7 +1676,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.5">
+    <row r="27" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>73</v>
       </c>
@@ -1566,7 +1684,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.5">
+    <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>74</v>
       </c>
@@ -1574,7 +1692,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.5">
+    <row r="29" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>75</v>
       </c>
@@ -1582,7 +1700,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="28.5">
+    <row r="30" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>76</v>
       </c>
@@ -1590,7 +1708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5">
+    <row r="31" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>77</v>
       </c>
@@ -1598,7 +1716,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.5">
+    <row r="32" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
@@ -1606,7 +1724,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="42.75">
+    <row r="33" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>79</v>
       </c>
@@ -1617,7 +1735,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="28.5">
+    <row r="34" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>80</v>
       </c>
@@ -1625,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.5">
+    <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>81</v>
       </c>
@@ -1633,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.5">
+    <row r="36" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>82</v>
       </c>
@@ -1647,7 +1765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28.5">
+    <row r="37" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>83</v>
       </c>
@@ -1658,7 +1776,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28.5">
+    <row r="38" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>84</v>
       </c>
@@ -1669,7 +1787,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.5">
+    <row r="39" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>85</v>
       </c>
@@ -1680,7 +1798,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28.5">
+    <row r="40" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>86</v>
       </c>
@@ -1691,7 +1809,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="28.5">
+    <row r="41" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>87</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\reborn2\相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leaf\reborn2\相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
   <si>
     <t>关卡</t>
   </si>
@@ -1102,11 +1102,101 @@
 0x008C黃綾僧衣</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>平34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 枫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32 胤31</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1514,13 +1604,13 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
@@ -1535,7 +1625,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5">
+    <row r="1" spans="1:10" ht="40.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +1657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="128.25">
+    <row r="2" spans="1:10" ht="121.5">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1599,7 +1689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5">
+    <row r="3" spans="1:10" ht="27">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1619,7 +1709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.5">
+    <row r="4" spans="1:10" ht="27">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1639,7 +1729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="128.25">
+    <row r="5" spans="1:10" ht="121.5">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1671,7 +1761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="142.5">
+    <row r="6" spans="1:10" ht="135">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -1703,7 +1793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.5">
+    <row r="7" spans="1:10" ht="27">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -1727,7 +1817,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="185.25">
+    <row r="8" spans="1:10" ht="175.5">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1759,7 +1849,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="228">
+    <row r="9" spans="1:10" ht="216">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -1791,7 +1881,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.5">
+    <row r="10" spans="1:10" ht="27">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -1811,7 +1901,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="142.5">
+    <row r="11" spans="1:10" ht="135">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -1843,7 +1933,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="142.5">
+    <row r="12" spans="1:10" ht="135">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -1853,6 +1943,12 @@
       <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="G12" s="5" t="s">
         <v>53</v>
       </c>
@@ -1866,7 +1962,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="142.5">
+    <row r="13" spans="1:10" ht="135">
       <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
@@ -1889,7 +1985,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.5">
+    <row r="14" spans="1:10" ht="27">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -1900,7 +1996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.5">
+    <row r="15" spans="1:10" ht="27">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
@@ -1914,7 +2010,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.5">
+    <row r="16" spans="1:10" ht="27">
       <c r="A16" s="5" t="s">
         <v>62</v>
       </c>
@@ -1925,7 +2021,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.5">
+    <row r="17" spans="1:7" ht="27">
       <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
@@ -1939,7 +2035,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.5">
+    <row r="18" spans="1:7" ht="27">
       <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
@@ -1953,7 +2049,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.5">
+    <row r="19" spans="1:7" ht="27">
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
@@ -1964,7 +2060,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.5">
+    <row r="20" spans="1:7" ht="27">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -1975,7 +2071,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.5">
+    <row r="21" spans="1:7" ht="27">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -1989,7 +2085,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5">
+    <row r="22" spans="1:7" ht="27">
       <c r="A22" s="5" t="s">
         <v>77</v>
       </c>
@@ -2000,7 +2096,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.5">
+    <row r="23" spans="1:7" ht="27">
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
@@ -2011,7 +2107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.5">
+    <row r="24" spans="1:7" ht="27">
       <c r="A24" s="5" t="s">
         <v>81</v>
       </c>
@@ -2025,7 +2121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="42.75">
+    <row r="25" spans="1:7" ht="40.5">
       <c r="A25" s="5" t="s">
         <v>84</v>
       </c>
@@ -2033,7 +2129,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.5">
+    <row r="26" spans="1:7" ht="27">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
@@ -2041,7 +2137,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.5">
+    <row r="27" spans="1:7" ht="27">
       <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
@@ -2049,7 +2145,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.5">
+    <row r="28" spans="1:7" ht="27">
       <c r="A28" s="5" t="s">
         <v>87</v>
       </c>
@@ -2057,7 +2153,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.5">
+    <row r="29" spans="1:7" ht="27">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -2065,7 +2161,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="28.5">
+    <row r="30" spans="1:7" ht="27">
       <c r="A30" s="5" t="s">
         <v>89</v>
       </c>
@@ -2073,7 +2169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5">
+    <row r="31" spans="1:7" ht="27">
       <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
@@ -2081,7 +2177,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.5">
+    <row r="32" spans="1:7" ht="27">
       <c r="A32" s="5" t="s">
         <v>91</v>
       </c>
@@ -2089,7 +2185,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="42.75">
+    <row r="33" spans="1:7" ht="40.5">
       <c r="A33" s="5" t="s">
         <v>92</v>
       </c>
@@ -2100,7 +2196,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="28.5">
+    <row r="34" spans="1:7" ht="27">
       <c r="A34" s="5" t="s">
         <v>94</v>
       </c>
@@ -2108,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.5">
+    <row r="35" spans="1:7" ht="27">
       <c r="A35" s="5" t="s">
         <v>95</v>
       </c>
@@ -2116,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.5">
+    <row r="36" spans="1:7" ht="27">
       <c r="A36" s="5" t="s">
         <v>96</v>
       </c>
@@ -2130,7 +2226,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28.5">
+    <row r="37" spans="1:7" ht="27">
       <c r="A37" s="5" t="s">
         <v>99</v>
       </c>
@@ -2141,7 +2237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28.5">
+    <row r="38" spans="1:7" ht="27">
       <c r="A38" s="5" t="s">
         <v>101</v>
       </c>
@@ -2152,7 +2248,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.5">
+    <row r="39" spans="1:7" ht="27">
       <c r="A39" s="5" t="s">
         <v>103</v>
       </c>
@@ -2163,7 +2259,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28.5">
+    <row r="40" spans="1:7" ht="27">
       <c r="A40" s="5" t="s">
         <v>105</v>
       </c>
@@ -2174,7 +2270,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="28.5">
+    <row r="41" spans="1:7" ht="27">
       <c r="A41" s="5" t="s">
         <v>107</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="122">
   <si>
     <t>关卡</t>
   </si>
@@ -1189,6 +1189,96 @@
         <scheme val="minor"/>
       </rPr>
       <t>32 胤31</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>平36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 枫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>35 胤34</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1604,10 +1694,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1972,6 +2062,9 @@
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="F13" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="G13" s="5" t="s">
         <v>56</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
   <si>
     <t>关卡</t>
   </si>
@@ -1694,10 +1694,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2033,6 +2033,9 @@
       <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
@@ -2061,6 +2064,12 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>121</v>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leaf\reborn2\相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\reborn2\相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="合集" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
   <si>
     <t>关卡</t>
   </si>
@@ -79,6 +79,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -93,6 +94,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -103,6 +105,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -115,6 +118,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -128,6 +132,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -141,6 +146,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -212,6 +218,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -231,6 +238,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -270,6 +278,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -283,6 +292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -296,6 +306,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -570,6 +581,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -591,6 +603,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -612,6 +625,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -633,6 +647,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -664,6 +679,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -686,6 +702,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -706,6 +723,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -743,6 +761,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -756,6 +775,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -769,6 +789,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -791,6 +812,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -813,6 +835,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -835,6 +858,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -854,6 +878,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -876,6 +901,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -898,6 +924,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -920,6 +947,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -943,6 +971,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -963,6 +992,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -980,6 +1010,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1003,6 +1034,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1023,6 +1055,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1041,6 +1074,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1064,6 +1098,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1082,6 +1117,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1111,6 +1147,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1132,6 +1169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1153,6 +1191,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1174,6 +1213,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1201,6 +1241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1222,6 +1263,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1243,6 +1285,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1264,6 +1307,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1279,6 +1323,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>35 胤34</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>平3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9 月40 远39 超41 枫39 胤38 秀40</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1286,8 +1347,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1299,38 +1360,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1346,6 +1382,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1387,7 +1438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1415,6 +1466,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1697,17 +1751,17 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.625" style="2" customWidth="1"/>
@@ -1715,7 +1769,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40.5">
+    <row r="1" spans="1:10" ht="28.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1747,7 +1801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="121.5">
+    <row r="2" spans="1:10" ht="128.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1779,7 +1833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="27">
+    <row r="3" spans="1:10" ht="28.5">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1799,7 +1853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27">
+    <row r="4" spans="1:10" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1819,7 +1873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="121.5">
+    <row r="5" spans="1:10" ht="128.25">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1851,7 +1905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="135">
+    <row r="6" spans="1:10" ht="142.5">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -1883,7 +1937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27">
+    <row r="7" spans="1:10" ht="28.5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -1907,7 +1961,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="175.5">
+    <row r="8" spans="1:10" ht="185.25">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1939,7 +1993,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="216">
+    <row r="9" spans="1:10" ht="228">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -1971,7 +2025,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27">
+    <row r="10" spans="1:10" ht="28.5">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -1991,7 +2045,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="135">
+    <row r="11" spans="1:10" ht="142.5">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -2023,7 +2077,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="135">
+    <row r="12" spans="1:10" ht="142.5">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -2055,7 +2109,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="135">
+    <row r="13" spans="1:10" ht="142.5">
       <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
@@ -2087,7 +2141,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="27">
+    <row r="14" spans="1:10" ht="28.5">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -2097,8 +2151,17 @@
       <c r="C14" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="27">
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.5">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
@@ -2112,7 +2175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="27">
+    <row r="16" spans="1:10" ht="28.5">
       <c r="A16" s="5" t="s">
         <v>62</v>
       </c>
@@ -2123,7 +2186,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27">
+    <row r="17" spans="1:7" ht="28.5">
       <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
@@ -2137,7 +2200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27">
+    <row r="18" spans="1:7" ht="28.5">
       <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
@@ -2151,7 +2214,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27">
+    <row r="19" spans="1:7" ht="28.5">
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
@@ -2162,7 +2225,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27">
+    <row r="20" spans="1:7" ht="28.5">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -2173,7 +2236,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27">
+    <row r="21" spans="1:7" ht="28.5">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -2187,7 +2250,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="27">
+    <row r="22" spans="1:7" ht="28.5">
       <c r="A22" s="5" t="s">
         <v>77</v>
       </c>
@@ -2198,7 +2261,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27">
+    <row r="23" spans="1:7" ht="28.5">
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
@@ -2209,7 +2272,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27">
+    <row r="24" spans="1:7" ht="28.5">
       <c r="A24" s="5" t="s">
         <v>81</v>
       </c>
@@ -2223,7 +2286,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="40.5">
+    <row r="25" spans="1:7" ht="42.75">
       <c r="A25" s="5" t="s">
         <v>84</v>
       </c>
@@ -2231,7 +2294,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27">
+    <row r="26" spans="1:7" ht="28.5">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
@@ -2239,7 +2302,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27">
+    <row r="27" spans="1:7" ht="28.5">
       <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
@@ -2247,7 +2310,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="27">
+    <row r="28" spans="1:7" ht="28.5">
       <c r="A28" s="5" t="s">
         <v>87</v>
       </c>
@@ -2255,7 +2318,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27">
+    <row r="29" spans="1:7" ht="28.5">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -2263,7 +2326,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="27">
+    <row r="30" spans="1:7" ht="28.5">
       <c r="A30" s="5" t="s">
         <v>89</v>
       </c>
@@ -2271,7 +2334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27">
+    <row r="31" spans="1:7" ht="28.5">
       <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
@@ -2279,7 +2342,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27">
+    <row r="32" spans="1:7" ht="28.5">
       <c r="A32" s="5" t="s">
         <v>91</v>
       </c>
@@ -2287,7 +2350,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="40.5">
+    <row r="33" spans="1:7" ht="42.75">
       <c r="A33" s="5" t="s">
         <v>92</v>
       </c>
@@ -2298,7 +2361,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="27">
+    <row r="34" spans="1:7" ht="28.5">
       <c r="A34" s="5" t="s">
         <v>94</v>
       </c>
@@ -2306,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="27">
+    <row r="35" spans="1:7" ht="28.5">
       <c r="A35" s="5" t="s">
         <v>95</v>
       </c>
@@ -2314,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="27">
+    <row r="36" spans="1:7" ht="28.5">
       <c r="A36" s="5" t="s">
         <v>96</v>
       </c>
@@ -2328,7 +2391,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="27">
+    <row r="37" spans="1:7" ht="28.5">
       <c r="A37" s="5" t="s">
         <v>99</v>
       </c>
@@ -2339,7 +2402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="27">
+    <row r="38" spans="1:7" ht="28.5">
       <c r="A38" s="5" t="s">
         <v>101</v>
       </c>
@@ -2350,7 +2413,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="27">
+    <row r="39" spans="1:7" ht="28.5">
       <c r="A39" s="5" t="s">
         <v>103</v>
       </c>
@@ -2361,7 +2424,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="27">
+    <row r="40" spans="1:7" ht="28.5">
       <c r="A40" s="5" t="s">
         <v>105</v>
       </c>
@@ -2372,7 +2435,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="27">
+    <row r="41" spans="1:7" ht="28.5">
       <c r="A41" s="5" t="s">
         <v>107</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\reborn2\相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\reborn2\相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="124">
   <si>
     <t>关卡</t>
   </si>
@@ -1341,6 +1341,10 @@
       </rPr>
       <t>9 月40 远39 超41 枫39 胤38 秀40</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>平43 月43 远44 超44 枫42 胤42 秀42</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1748,10 +1752,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2171,6 +2175,15 @@
       <c r="C15" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="G15" s="5" t="s">
         <v>61</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="125">
   <si>
     <t>关卡</t>
   </si>
@@ -1345,6 +1345,29 @@
   </si>
   <si>
     <t>平43 月43 远44 超44 枫42 胤42 秀42</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0x00DC金疮药
+0x00E5龙涎清血丹
+0x00E6通脉补心丸
+0x00E7绮罗天香
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x01BF乌草
+0x00DD大补丸
+0x01C1十里芍藥</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1755,7 +1778,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2165,7 +2188,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.5">
+    <row r="15" spans="1:10" ht="142.5">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
@@ -2186,6 +2209,15 @@
       </c>
       <c r="G15" s="5" t="s">
         <v>61</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5">

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\reborn2\相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\reborn2\相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
   <si>
     <t>关卡</t>
   </si>
@@ -1368,6 +1368,10 @@
 0x00DD大补丸
 0x01C1十里芍藥</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>平47 月48 远44 超47 枫46 胤46 秀46</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1778,7 +1782,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2230,6 +2234,15 @@
       <c r="C16" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="28.5">
       <c r="A17" s="5" t="s">

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
   <si>
     <t>关卡</t>
   </si>
@@ -1372,6 +1372,10 @@
   </si>
   <si>
     <t>平47 月48 远44 超47 枫46 胤46 秀46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>平51 月51 远44 超51 枫50 胤51 秀50 仪48</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1779,10 +1783,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1792,7 +1796,7 @@
     <col min="3" max="3" width="29.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.625" style="2" customWidth="1"/>
@@ -2254,6 +2258,15 @@
       <c r="C17" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="G17" s="5" t="s">
         <v>66</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
   <si>
     <t>关卡</t>
   </si>
@@ -1376,6 +1376,569 @@
   </si>
   <si>
     <t>平51 月51 远44 超51 枫50 胤51 秀50 仪48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x0007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>封陣劍
+0x001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>翠玉匕首
+0x003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑玉短戈
+0x003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鋼煞劍
+0x002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紫絹金索
+0x004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">金剛杖
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x004E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">燕返刃
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x01F9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>銅翎短劍
+0x006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>薄鋼環甲
+0x007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>妖骨冑
+0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>銀狐披肩
+0x008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>護法僧衣</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01C6玄武甲彀
+0x00CE火紋金釵
+0x00CB琉璃星簪
+0x00C9冰凜銀鐲
+0x00A2天狼血眼
+0x00A3如意金囊
+0x00A5蟠龍玉帶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0006紫金劍
+0x0013朱綸祭劍
+0x0030朱纓槍
+0x003B斬馬刀
+0x0025素綢靈索
+0x0044鐵禪杖
+0x0066鎖子甲
+0x0073金縷甲
+0x007F綴玉華裝
+0x008C黃綾僧衣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x0007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>封陣劍
+0x001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>翠玉匕首
+0x003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑玉短戈
+0x003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鋼煞劍
+0x002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紫絹金索
+0x004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">金剛杖
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x004E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">燕返刃
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x01F9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">銅翎短劍
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x0066</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">鎖子甲
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x0073</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">金縷甲
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x007F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">綴玉華裝
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x008C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黃綾僧衣</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1783,10 +2346,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2224,8 +2787,8 @@
       <c r="I15" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>113</v>
+      <c r="J15" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5">
@@ -2248,7 +2811,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.5">
+    <row r="17" spans="1:10" ht="171">
       <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
@@ -2270,8 +2833,17 @@
       <c r="G17" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.5">
+      <c r="H17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="171">
       <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
@@ -2284,8 +2856,17 @@
       <c r="G18" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.5">
+      <c r="H18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.5">
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
@@ -2296,7 +2877,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.5">
+    <row r="20" spans="1:10" ht="28.5">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -2307,7 +2888,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.5">
+    <row r="21" spans="1:10" ht="28.5">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -2321,7 +2902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5">
+    <row r="22" spans="1:10" ht="28.5">
       <c r="A22" s="5" t="s">
         <v>77</v>
       </c>
@@ -2332,7 +2913,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.5">
+    <row r="23" spans="1:10" ht="28.5">
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
@@ -2343,7 +2924,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.5">
+    <row r="24" spans="1:10" ht="28.5">
       <c r="A24" s="5" t="s">
         <v>81</v>
       </c>
@@ -2357,7 +2938,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="42.75">
+    <row r="25" spans="1:10" ht="42.75">
       <c r="A25" s="5" t="s">
         <v>84</v>
       </c>
@@ -2365,7 +2946,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.5">
+    <row r="26" spans="1:10" ht="28.5">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
@@ -2373,7 +2954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.5">
+    <row r="27" spans="1:10" ht="28.5">
       <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
@@ -2381,7 +2962,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.5">
+    <row r="28" spans="1:10" ht="28.5">
       <c r="A28" s="5" t="s">
         <v>87</v>
       </c>
@@ -2389,7 +2970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.5">
+    <row r="29" spans="1:10" ht="28.5">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -2397,7 +2978,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="28.5">
+    <row r="30" spans="1:10" ht="28.5">
       <c r="A30" s="5" t="s">
         <v>89</v>
       </c>
@@ -2405,7 +2986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5">
+    <row r="31" spans="1:10" ht="28.5">
       <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
@@ -2413,7 +2994,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.5">
+    <row r="32" spans="1:10" ht="28.5">
       <c r="A32" s="5" t="s">
         <v>91</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
   <si>
     <t>关卡</t>
   </si>
@@ -2346,10 +2346,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2853,6 +2853,9 @@
       <c r="C18" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="5" t="s">
         <v>69</v>
       </c>
@@ -2875,6 +2878,9 @@
       </c>
       <c r="C19" s="2" t="s">
         <v>71</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.5">

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="131">
   <si>
     <t>关卡</t>
   </si>
@@ -2349,7 +2349,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2893,6 +2893,9 @@
       <c r="C20" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="28.5">
       <c r="A21" s="5" t="s">

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\reborn2\相关文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="合集" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
   <si>
     <t>关卡</t>
   </si>
@@ -1182,17 +1187,11 @@
     <t>02  00  00  00  ff  ff  0e  00  0f  00  </t>
   </si>
   <si>
-    <t>平47 月48 远44 超47 枫46 胤46 秀46</t>
-  </si>
-  <si>
     <t>15
 （Stage15）</t>
   </si>
   <si>
     <t>02  00  00  00  11  00  ff  ff  10  00  </t>
-  </si>
-  <si>
-    <t>平51 月51 远44 超51 枫50 胤51 秀50 仪48</t>
   </si>
   <si>
     <t>开封I
@@ -1867,18 +1866,188 @@
   <si>
     <t>扩展5</t>
   </si>
+  <si>
+    <r>
+      <t>平5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 月5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 超5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 枫5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 胤5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 秀5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 蓉53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 仪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>平47 月48 远44 超47 枫46 胤46 秀46 蓉47</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>平51 月51 远44 超51 枫50 胤51 秀50 蓉50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 仪48</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1894,147 +2063,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2046,213 +2078,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2275,253 +2128,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2547,62 +2158,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2860,20 +2430,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2883,7 +2452,7 @@
     <col min="3" max="3" width="29.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.75" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.625" style="2" customWidth="1"/>
@@ -2891,7 +2460,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:10">
+    <row r="1" spans="1:10" ht="28.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2923,7 +2492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="129" spans="1:10">
+    <row r="2" spans="1:10" ht="128.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2955,7 +2524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:6">
+    <row r="3" spans="1:10" ht="28.5">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -2975,7 +2544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:6">
+    <row r="4" spans="1:10" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2995,7 +2564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="128.25" spans="1:10">
+    <row r="5" spans="1:10" ht="128.25">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -3027,7 +2596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="142.5" spans="1:10">
+    <row r="6" spans="1:10" ht="142.5">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -3059,7 +2628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="28.5" spans="1:10">
+    <row r="7" spans="1:10" ht="28.5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -3083,7 +2652,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" ht="185.25" spans="1:10">
+    <row r="8" spans="1:10" ht="185.25">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -3115,7 +2684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" ht="228" spans="1:10">
+    <row r="9" spans="1:10" ht="228">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
@@ -3147,7 +2716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:6">
+    <row r="10" spans="1:10" ht="28.5">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -3167,7 +2736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" ht="142.5" spans="1:10">
+    <row r="11" spans="1:10" ht="142.5">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -3199,7 +2768,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" ht="142.5" spans="1:10">
+    <row r="12" spans="1:10" ht="142.5">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -3231,7 +2800,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" ht="142.5" spans="1:10">
+    <row r="13" spans="1:10" ht="142.5">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -3263,7 +2832,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" ht="28.5" spans="1:6">
+    <row r="14" spans="1:10" ht="28.5">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
@@ -3283,7 +2852,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" ht="142.5" spans="1:10">
+    <row r="15" spans="1:10" ht="142.5">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -3315,7 +2884,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" ht="28.5" spans="1:6">
+    <row r="16" spans="1:10" ht="28.5">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -3331,19 +2900,19 @@
       <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="171">
+      <c r="A17" s="5" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="17" ht="171" spans="1:10">
-      <c r="A17" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="B17" s="1">
         <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -3351,289 +2920,295 @@
       <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>83</v>
+      <c r="F17" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>77</v>
       </c>
       <c r="I17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="171">
+      <c r="A18" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" ht="171" spans="1:10">
-      <c r="A18" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="B18" s="1">
         <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="G18" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>77</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" spans="1:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.5">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1">
         <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="28.5" spans="1:4">
+    <row r="20" spans="1:10" ht="28.5">
       <c r="A20" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1">
         <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="28.5" spans="1:7">
+    <row r="21" spans="1:10" ht="28.5">
       <c r="A21" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1">
         <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.5">
+      <c r="A22" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" ht="28.5" spans="1:3">
-      <c r="A22" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="B22" s="1">
         <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" ht="28.5" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="28.5">
       <c r="A23" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1">
         <v>72</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" ht="28.5" spans="1:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="28.5">
       <c r="A24" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1">
         <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="42.75">
+      <c r="A25" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" ht="42.75" spans="1:2">
-      <c r="A25" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="B25" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="26" ht="28.5" spans="1:2">
+    <row r="26" spans="1:10" ht="28.5">
       <c r="A26" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="27" ht="28.5" spans="1:2">
+    <row r="27" spans="1:10" ht="28.5">
       <c r="A27" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B27" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="28" ht="28.5" spans="1:2">
+    <row r="28" spans="1:10" ht="28.5">
       <c r="A28" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="29" ht="28.5" spans="1:2">
+    <row r="29" spans="1:10" ht="28.5">
       <c r="A29" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B29" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="30" ht="28.5" spans="1:2">
+    <row r="30" spans="1:10" ht="28.5">
       <c r="A30" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B30" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="31" ht="28.5" spans="1:2">
+    <row r="31" spans="1:10" ht="28.5">
       <c r="A31" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="32" ht="28.5" spans="1:2">
+    <row r="32" spans="1:10" ht="28.5">
       <c r="A32" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B32" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="33" ht="42.75" spans="1:7">
+    <row r="33" spans="1:7" ht="42.75">
       <c r="A33" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" ht="28.5" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.5">
       <c r="A34" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="28.5" spans="1:2">
+    <row r="35" spans="1:7" ht="28.5">
       <c r="A35" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="28.5" spans="1:7">
+    <row r="36" spans="1:7" ht="28.5">
       <c r="A36" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.5">
+      <c r="A37" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" ht="28.5" spans="1:7">
-      <c r="A37" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" ht="28.5" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.5">
       <c r="A38" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" ht="28.5" spans="1:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.5">
       <c r="A39" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" ht="28.5" spans="1:7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28.5">
       <c r="A40" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" ht="28.5" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28.5">
       <c r="A41" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\reborn2\相关文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="20445" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="合集" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
   <si>
     <t>关卡</t>
   </si>
@@ -200,7 +195,7 @@
   </si>
   <si>
     <t>平15 月14 远15
-平14 月14 远15</t>
+平15 月14 远15</t>
   </si>
   <si>
     <t>襄阳B
@@ -1187,11 +1182,36 @@
     <t>02  00  00  00  ff  ff  0e  00  0f  00  </t>
   </si>
   <si>
+    <t>平47 月48 远44 超47 枫46 胤46 秀46 蓉47</t>
+  </si>
+  <si>
     <t>15
 （Stage15）</t>
   </si>
   <si>
     <t>02  00  00  00  11  00  ff  ff  10  00  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平51 月51 远44 超51 枫50 胤51 秀50 蓉50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 仪48</t>
+    </r>
   </si>
   <si>
     <t>开封I
@@ -1467,6 +1487,168 @@
     <t>02  00  00  00  13  00  ff  ff  11  00  </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 月5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 超5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 枫5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 胤5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 秀5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 蓉53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 仪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>53</t>
+    </r>
+  </si>
+  <si>
     <t>开封J
 RPG019</t>
   </si>
@@ -1865,189 +2047,19 @@
   </si>
   <si>
     <t>扩展5</t>
-  </si>
-  <si>
-    <r>
-      <t>平5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 月5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 远</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 超5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 枫5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 胤5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 秀5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4 蓉53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 仪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>53</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>平47 月48 远44 超47 枫46 胤46 秀46 蓉47</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>平51 月51 远44 超51 枫50 胤51 秀50 蓉50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 仪48</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2063,10 +2075,147 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2078,34 +2227,213 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2128,9 +2456,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2152,27 +2722,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2430,19 +3044,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2452,7 +3067,7 @@
     <col min="3" max="3" width="29.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.625" style="2" customWidth="1"/>
@@ -2460,7 +3075,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5">
+    <row r="1" ht="30" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2492,7 +3107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="128.25">
+    <row r="2" ht="129" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2524,7 +3139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5">
+    <row r="3" ht="28.5" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -2544,7 +3159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.5">
+    <row r="4" ht="28.5" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2564,7 +3179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="128.25">
+    <row r="5" ht="128.25" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -2596,7 +3211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="142.5">
+    <row r="6" ht="142.5" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -2628,7 +3243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.5">
+    <row r="7" ht="28.5" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -2652,7 +3267,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="185.25">
+    <row r="8" ht="185.25" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -2684,7 +3299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="228">
+    <row r="9" ht="228" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
@@ -2716,7 +3331,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.5">
+    <row r="10" ht="28.5" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -2736,7 +3351,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="142.5">
+    <row r="11" ht="142.5" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -2768,7 +3383,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="142.5">
+    <row r="12" ht="142.5" spans="1:10">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -2800,7 +3415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="142.5">
+    <row r="13" ht="142.5" spans="1:10">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -2832,7 +3447,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.5">
+    <row r="14" ht="28.5" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
@@ -2852,7 +3467,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="142.5">
+    <row r="15" ht="142.5" spans="1:10">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -2884,7 +3499,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.5">
+    <row r="16" ht="28.5" spans="1:6">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -2901,18 +3516,18 @@
         <v>38</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="171">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" ht="171" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1">
         <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -2921,30 +3536,30 @@
         <v>38</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>77</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="171">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" ht="171" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1">
         <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -2953,262 +3568,262 @@
         <v>38</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>77</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="28.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1">
         <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28.5">
+    <row r="20" ht="28.5" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1">
         <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="28.5">
+    <row r="21" ht="28.5" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1">
         <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="28.5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1">
         <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="28.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B23" s="1">
         <v>72</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="28.5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" ht="28.5" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B24" s="1">
         <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="42.75">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" ht="42.75" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B25" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28.5">
+    <row r="26" ht="28.5" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B26" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="28.5">
+    <row r="27" ht="28.5" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="28.5">
+    <row r="28" ht="28.5" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="28.5">
+    <row r="29" ht="28.5" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="28.5">
+    <row r="30" ht="28.5" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B30" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="28.5">
+    <row r="31" ht="28.5" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B31" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="28.5">
+    <row r="32" ht="28.5" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B32" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="42.75">
+    <row r="33" ht="42.75" spans="1:7">
       <c r="A33" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28.5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" ht="28.5" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.5">
+    <row r="35" ht="28.5" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.5">
+    <row r="36" ht="28.5" spans="1:7">
       <c r="A36" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="28.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" ht="28.5" spans="1:7">
       <c r="A37" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" ht="28.5" spans="1:7">
       <c r="A38" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="28.5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" ht="28.5" spans="1:7">
       <c r="A39" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="28.5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" ht="28.5" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="28.5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" ht="28.5" spans="1:7">
       <c r="A41" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\reborn2\相关文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20445" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="合集" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="132">
   <si>
     <t>关卡</t>
   </si>
@@ -2048,18 +2053,16 @@
   <si>
     <t>扩展5</t>
   </si>
+  <si>
+    <t>平56 月58 远56 超58 枫56 胤58 秀58 蓉57 仪58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2075,147 +2078,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2227,213 +2093,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2456,251 +2135,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2732,61 +2169,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3044,20 +2437,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3075,7 +2467,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:10">
+    <row r="1" spans="1:10" ht="28.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3107,7 +2499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="129" spans="1:10">
+    <row r="2" spans="1:10" ht="128.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3139,7 +2531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:6">
+    <row r="3" spans="1:10" ht="28.5">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -3159,7 +2551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:6">
+    <row r="4" spans="1:10" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -3179,7 +2571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="128.25" spans="1:10">
+    <row r="5" spans="1:10" ht="128.25">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -3211,7 +2603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="142.5" spans="1:10">
+    <row r="6" spans="1:10" ht="142.5">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -3243,7 +2635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="28.5" spans="1:10">
+    <row r="7" spans="1:10" ht="28.5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -3267,7 +2659,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" ht="185.25" spans="1:10">
+    <row r="8" spans="1:10" ht="185.25">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -3299,7 +2691,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" ht="228" spans="1:10">
+    <row r="9" spans="1:10" ht="228">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
@@ -3331,7 +2723,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:6">
+    <row r="10" spans="1:10" ht="28.5">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -3351,7 +2743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" ht="142.5" spans="1:10">
+    <row r="11" spans="1:10" ht="142.5">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -3383,7 +2775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" ht="142.5" spans="1:10">
+    <row r="12" spans="1:10" ht="142.5">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -3415,7 +2807,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" ht="142.5" spans="1:10">
+    <row r="13" spans="1:10" ht="142.5">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -3447,7 +2839,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" ht="28.5" spans="1:6">
+    <row r="14" spans="1:10" ht="28.5">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
@@ -3467,7 +2859,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" ht="142.5" spans="1:10">
+    <row r="15" spans="1:10" ht="142.5">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -3499,7 +2891,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" ht="28.5" spans="1:6">
+    <row r="16" spans="1:10" ht="28.5">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -3519,7 +2911,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" ht="171" spans="1:10">
+    <row r="17" spans="1:10" ht="171">
       <c r="A17" s="5" t="s">
         <v>81</v>
       </c>
@@ -3551,7 +2943,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" ht="171" spans="1:10">
+    <row r="18" spans="1:10" ht="171">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -3583,7 +2975,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" ht="28.5" spans="1:4">
+    <row r="19" spans="1:10" ht="28.5">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
@@ -3596,8 +2988,14 @@
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" ht="28.5" spans="1:4">
+      <c r="E19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.5">
       <c r="A20" s="5" t="s">
         <v>94</v>
       </c>
@@ -3611,7 +3009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="28.5" spans="1:7">
+    <row r="21" spans="1:10" ht="28.5">
       <c r="A21" s="5" t="s">
         <v>96</v>
       </c>
@@ -3625,7 +3023,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" ht="28.5" spans="1:3">
+    <row r="22" spans="1:10" ht="28.5">
       <c r="A22" s="5" t="s">
         <v>99</v>
       </c>
@@ -3636,7 +3034,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" ht="28.5" spans="1:3">
+    <row r="23" spans="1:10" ht="28.5">
       <c r="A23" s="5" t="s">
         <v>101</v>
       </c>
@@ -3647,7 +3045,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" ht="28.5" spans="1:7">
+    <row r="24" spans="1:10" ht="28.5">
       <c r="A24" s="5" t="s">
         <v>103</v>
       </c>
@@ -3661,7 +3059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" ht="42.75" spans="1:2">
+    <row r="25" spans="1:10" ht="42.75">
       <c r="A25" s="5" t="s">
         <v>106</v>
       </c>
@@ -3669,7 +3067,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" ht="28.5" spans="1:2">
+    <row r="26" spans="1:10" ht="28.5">
       <c r="A26" s="5" t="s">
         <v>107</v>
       </c>
@@ -3677,7 +3075,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" ht="28.5" spans="1:2">
+    <row r="27" spans="1:10" ht="28.5">
       <c r="A27" s="5" t="s">
         <v>108</v>
       </c>
@@ -3685,7 +3083,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" ht="28.5" spans="1:2">
+    <row r="28" spans="1:10" ht="28.5">
       <c r="A28" s="5" t="s">
         <v>109</v>
       </c>
@@ -3693,7 +3091,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" ht="28.5" spans="1:2">
+    <row r="29" spans="1:10" ht="28.5">
       <c r="A29" s="5" t="s">
         <v>110</v>
       </c>
@@ -3701,7 +3099,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" ht="28.5" spans="1:2">
+    <row r="30" spans="1:10" ht="28.5">
       <c r="A30" s="5" t="s">
         <v>111</v>
       </c>
@@ -3709,7 +3107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" ht="28.5" spans="1:2">
+    <row r="31" spans="1:10" ht="28.5">
       <c r="A31" s="5" t="s">
         <v>112</v>
       </c>
@@ -3717,7 +3115,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" ht="28.5" spans="1:2">
+    <row r="32" spans="1:10" ht="28.5">
       <c r="A32" s="5" t="s">
         <v>113</v>
       </c>
@@ -3725,7 +3123,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" ht="42.75" spans="1:7">
+    <row r="33" spans="1:7" ht="42.75">
       <c r="A33" s="5" t="s">
         <v>114</v>
       </c>
@@ -3736,7 +3134,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" ht="28.5" spans="1:2">
+    <row r="34" spans="1:7" ht="28.5">
       <c r="A34" s="5" t="s">
         <v>116</v>
       </c>
@@ -3744,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="28.5" spans="1:2">
+    <row r="35" spans="1:7" ht="28.5">
       <c r="A35" s="5" t="s">
         <v>117</v>
       </c>
@@ -3752,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="28.5" spans="1:7">
+    <row r="36" spans="1:7" ht="28.5">
       <c r="A36" s="5" t="s">
         <v>118</v>
       </c>
@@ -3766,7 +3164,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" ht="28.5" spans="1:7">
+    <row r="37" spans="1:7" ht="28.5">
       <c r="A37" s="5" t="s">
         <v>121</v>
       </c>
@@ -3777,7 +3175,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" ht="28.5" spans="1:7">
+    <row r="38" spans="1:7" ht="28.5">
       <c r="A38" s="5" t="s">
         <v>123</v>
       </c>
@@ -3788,7 +3186,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" ht="28.5" spans="1:7">
+    <row r="39" spans="1:7" ht="28.5">
       <c r="A39" s="5" t="s">
         <v>125</v>
       </c>
@@ -3799,7 +3197,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" ht="28.5" spans="1:7">
+    <row r="40" spans="1:7" ht="28.5">
       <c r="A40" s="5" t="s">
         <v>127</v>
       </c>
@@ -3810,7 +3208,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" ht="28.5" spans="1:7">
+    <row r="41" spans="1:7" ht="28.5">
       <c r="A41" s="5" t="s">
         <v>129</v>
       </c>
@@ -3822,8 +3220,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
   <si>
     <t>关卡</t>
   </si>
@@ -2055,6 +2055,10 @@
   </si>
   <si>
     <t>平56 月58 远56 超58 枫56 胤58 秀58 蓉57 仪58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>平61 月62 远62 超62 枫60 胤61 秀62 蓉60 仪62</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2446,10 +2450,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3008,6 +3012,12 @@
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="28.5">
       <c r="A21" s="5" t="s">

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\reborn2\相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\reborn2\相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="134">
   <si>
     <t>关卡</t>
   </si>
@@ -2059,6 +2059,10 @@
   </si>
   <si>
     <t>平61 月62 远62 超62 枫60 胤61 秀62 蓉60 仪62</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>平63 月66 远64 超64 枫60 胤64 秀65 蓉63 仪64</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2450,7 +2454,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
@@ -3029,6 +3033,15 @@
       <c r="C21" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="G21" s="5" t="s">
         <v>98</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\reborn2\相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\reborn2\相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
   <si>
     <t>关卡</t>
   </si>
@@ -2065,12 +2065,75 @@
     <t>平63 月66 远64 超64 枫60 胤64 秀65 蓉63 仪64</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>0x01C6玄武甲彀
+0x00A2天狼血眼
+0x00A3如意金囊
+0x00A5蟠龍玉帶0x00CA水靈珠花
+0x00CC朱蕊晶花
+0x00CD昂昴角簪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x00DC金疮药
+0x00DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">大补丸
+0x00E5龙涎清血丹
+0x00E6通脉补心丸
+0x00E7绮罗天香
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x01BF乌草
+0x01C1十里芍藥
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x01C2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玉絳草</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2111,6 +2174,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2147,7 +2226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2175,6 +2254,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2454,10 +2536,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3023,7 +3105,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="28.5">
+    <row r="21" spans="1:10" ht="171">
       <c r="A21" s="5" t="s">
         <v>96</v>
       </c>
@@ -3044,6 +3126,15 @@
       </c>
       <c r="G21" s="5" t="s">
         <v>98</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.5">
@@ -3068,7 +3159,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28.5">
+    <row r="24" spans="1:10" ht="114">
       <c r="A24" s="5" t="s">
         <v>103</v>
       </c>
@@ -3080,6 +3171,9 @@
       </c>
       <c r="G24" s="5" t="s">
         <v>105</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="42.75">

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\reborn2\相关文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="11595"/>
+    <workbookView windowWidth="20445" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="合集" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>关卡</t>
   </si>
@@ -245,8 +240,8 @@
     <t>02  00  00  00  ff  ff  05  00  06  00  </t>
   </si>
   <si>
-    <t xml:space="preserve">平18 月18 远19
-</t>
+    <t>平18 月18 远19
+平19 月17 远18</t>
   </si>
   <si>
     <t>6
@@ -1918,6 +1913,9 @@
     <t>02  00  00  00  ff  ff  11  00  12  00  </t>
   </si>
   <si>
+    <t>平56 月58 远56 超58 枫56 胤58 秀58 蓉57 仪58</t>
+  </si>
+  <si>
     <t>18
 （Stage18）</t>
   </si>
@@ -1925,6 +1923,9 @@
     <t>02  00  00  00  ff  ff  12  00  13  00  </t>
   </si>
   <si>
+    <t>平61 月62 远62 超62 枫60 胤61 秀62 蓉60 仪62</t>
+  </si>
+  <si>
     <t>19
 （Stage19）</t>
   </si>
@@ -1932,138 +1933,11 @@
     <t>02  00  00  00  15  00  ff  ff  14  00  </t>
   </si>
   <si>
+    <t>平63 月66 远64 超64 枫60 胤64 秀65 蓉63 仪64</t>
+  </si>
+  <si>
     <t>开封K
 RPG021</t>
-  </si>
-  <si>
-    <t>20
-（Stage20）</t>
-  </si>
-  <si>
-    <t>02  00  00  00  ff  ff  14  00  15  00  </t>
-  </si>
-  <si>
-    <t>21
-（Stage21）</t>
-  </si>
-  <si>
-    <t>02  00  00  00  ff  ff  15  00  16  00  </t>
-  </si>
-  <si>
-    <t>22
-（Stage22）</t>
-  </si>
-  <si>
-    <t>02  00  00  00  17  00  ff  ff  18  00  </t>
-  </si>
-  <si>
-    <t>开封L
-RPG023</t>
-  </si>
-  <si>
-    <t>23
-（Stage23、Stage24）</t>
-  </si>
-  <si>
-    <t>24
-（Stage25）</t>
-  </si>
-  <si>
-    <t>25
-（Stage26）</t>
-  </si>
-  <si>
-    <t>26
-（Stage27）</t>
-  </si>
-  <si>
-    <t>27
-（Stage28）</t>
-  </si>
-  <si>
-    <t>28
-（Stage29）</t>
-  </si>
-  <si>
-    <t>29
-（Stage30）</t>
-  </si>
-  <si>
-    <t>30
-（Stage31）</t>
-  </si>
-  <si>
-    <t>31
-（Stage32）</t>
-  </si>
-  <si>
-    <t>提供跳转到第35关
-（stage36)</t>
-  </si>
-  <si>
-    <t>32
-（Stage33）</t>
-  </si>
-  <si>
-    <t>33
-（Stage34）</t>
-  </si>
-  <si>
-    <t>34
-（Stage35）</t>
-  </si>
-  <si>
-    <t>02  00  00  00  ff  ff  ff  ff  23  00  </t>
-  </si>
-  <si>
-    <t>200块关卡</t>
-  </si>
-  <si>
-    <t>35
-（Stage36）</t>
-  </si>
-  <si>
-    <t>扩展1</t>
-  </si>
-  <si>
-    <t>36
-（Stage37）</t>
-  </si>
-  <si>
-    <t>扩展2</t>
-  </si>
-  <si>
-    <t>37
-（Stage38）</t>
-  </si>
-  <si>
-    <t>扩展3</t>
-  </si>
-  <si>
-    <t>38
-（Stage39）</t>
-  </si>
-  <si>
-    <t>扩展4</t>
-  </si>
-  <si>
-    <t>39
-（Stage40）</t>
-  </si>
-  <si>
-    <t>扩展5</t>
-  </si>
-  <si>
-    <t>平56 月58 远56 超58 枫56 胤58 秀58 蓉57 仪58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>平61 月62 远62 超62 枫60 胤61 秀62 蓉60 仪62</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>平63 月66 远64 超64 枫60 胤64 秀65 蓉63 仪64</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0x01C6玄武甲彀
@@ -2072,10 +1946,41 @@
 0x00A5蟠龍玉帶0x00CA水靈珠花
 0x00CC朱蕊晶花
 0x00CD昂昴角簪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>20
+（Stage20）</t>
+  </si>
+  <si>
+    <t>02  00  00  00  ff  ff  14  00  15  00  </t>
+  </si>
+  <si>
+    <t>21
+（Stage21）</t>
+  </si>
+  <si>
+    <t>02  00  00  00  ff  ff  15  00  16  00  </t>
+  </si>
+  <si>
+    <t>22
+（Stage22）</t>
+  </si>
+  <si>
+    <t>02  00  00  00  17  00  ff  ff  18  00  </t>
+  </si>
+  <si>
+    <t>开封L
+RPG023</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0x00DC金疮药
 0x00DD</t>
     </r>
@@ -2110,7 +2015,6 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2126,14 +2030,112 @@
       </rPr>
       <t>玉絳草</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>23
+（Stage23、Stage24）</t>
+  </si>
+  <si>
+    <t>24
+（Stage25）</t>
+  </si>
+  <si>
+    <t>25
+（Stage26）</t>
+  </si>
+  <si>
+    <t>26
+（Stage27）</t>
+  </si>
+  <si>
+    <t>27
+（Stage28）</t>
+  </si>
+  <si>
+    <t>28
+（Stage29）</t>
+  </si>
+  <si>
+    <t>29
+（Stage30）</t>
+  </si>
+  <si>
+    <t>30
+（Stage31）</t>
+  </si>
+  <si>
+    <t>31
+（Stage32）</t>
+  </si>
+  <si>
+    <t>提供跳转到第35关
+（stage36)</t>
+  </si>
+  <si>
+    <t>32
+（Stage33）</t>
+  </si>
+  <si>
+    <t>33
+（Stage34）</t>
+  </si>
+  <si>
+    <t>34
+（Stage35）</t>
+  </si>
+  <si>
+    <t>02  00  00  00  ff  ff  ff  ff  23  00  </t>
+  </si>
+  <si>
+    <t>200块关卡</t>
+  </si>
+  <si>
+    <t>35
+（Stage36）</t>
+  </si>
+  <si>
+    <t>扩展1</t>
+  </si>
+  <si>
+    <t>36
+（Stage37）</t>
+  </si>
+  <si>
+    <t>扩展2</t>
+  </si>
+  <si>
+    <t>37
+（Stage38）</t>
+  </si>
+  <si>
+    <t>扩展3</t>
+  </si>
+  <si>
+    <t>38
+（Stage39）</t>
+  </si>
+  <si>
+    <t>扩展4</t>
+  </si>
+  <si>
+    <t>39
+（Stage40）</t>
+  </si>
+  <si>
+    <t>扩展5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2150,7 +2152,164 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2162,44 +2321,202 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2222,11 +2539,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2253,23 +2812,64 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2527,19 +3127,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2557,7 +3158,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5">
+    <row r="1" ht="30" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2589,7 +3190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="128.25">
+    <row r="2" ht="129" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2621,7 +3222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5">
+    <row r="3" ht="28.5" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -2641,7 +3242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.5">
+    <row r="4" ht="28.5" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2661,7 +3262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="128.25">
+    <row r="5" ht="128.25" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -2693,7 +3294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="142.5">
+    <row r="6" ht="142.5" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -2725,7 +3326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.5">
+    <row r="7" ht="28.5" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -2749,7 +3350,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="185.25">
+    <row r="8" ht="185.25" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -2781,7 +3382,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="228">
+    <row r="9" ht="228" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
@@ -2813,7 +3414,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.5">
+    <row r="10" ht="28.5" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -2833,7 +3434,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="142.5">
+    <row r="11" ht="142.5" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -2865,7 +3466,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="142.5">
+    <row r="12" ht="142.5" spans="1:10">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -2897,7 +3498,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="142.5">
+    <row r="13" ht="142.5" spans="1:10">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -2929,7 +3530,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.5">
+    <row r="14" ht="28.5" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
@@ -2949,7 +3550,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="142.5">
+    <row r="15" ht="142.5" spans="1:10">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -2981,7 +3582,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.5">
+    <row r="16" ht="28.5" spans="1:6">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -2997,11 +3598,11 @@
       <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="171">
+    <row r="17" ht="171" spans="1:10">
       <c r="A17" s="5" t="s">
         <v>81</v>
       </c>
@@ -3017,7 +3618,7 @@
       <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -3033,7 +3634,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="171">
+    <row r="18" ht="171" spans="1:10">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -3049,7 +3650,7 @@
       <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -3065,7 +3666,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.5">
+    <row r="19" ht="28.5" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
@@ -3082,18 +3683,18 @@
         <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="28.5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1">
         <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
@@ -3102,18 +3703,18 @@
         <v>38</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="171">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" ht="171" spans="1:10">
       <c r="A21" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1">
         <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -3122,223 +3723,223 @@
         <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>77</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="28.5">
+    <row r="22" ht="28.5" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B22" s="1">
         <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="28.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1">
         <v>72</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="114">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" ht="114" spans="1:8">
       <c r="A24" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B24" s="1">
         <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="42.75">
+        <v>109</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" ht="42.75" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28.5">
+    <row r="26" ht="28.5" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B26" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="28.5">
+    <row r="27" ht="28.5" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B27" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="28.5">
+    <row r="28" ht="28.5" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B28" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="28.5">
+    <row r="29" ht="28.5" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="28.5">
+    <row r="30" ht="28.5" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="28.5">
+    <row r="31" ht="28.5" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B31" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="28.5">
+    <row r="32" ht="28.5" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B32" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="42.75">
+    <row r="33" ht="42.75" spans="1:7">
       <c r="A33" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" ht="28.5" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.5">
+    <row r="35" ht="28.5" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.5">
+    <row r="36" ht="28.5" spans="1:7">
       <c r="A36" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="28.5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" ht="28.5" spans="1:7">
       <c r="A37" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" ht="28.5" spans="1:7">
       <c r="A38" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="28.5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" ht="28.5" spans="1:7">
       <c r="A39" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="28.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" ht="28.5" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="28.5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" ht="28.5" spans="1:7">
       <c r="A41" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\reborn2\相关文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20445" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="合集" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="137">
   <si>
     <t>关卡</t>
   </si>
@@ -2124,18 +2129,16 @@
   <si>
     <t>扩展5</t>
   </si>
+  <si>
+    <t>平69 月70 远69 超69 枫69 胤70 秀69 蓉69 仪68</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2152,146 +2155,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2303,220 +2169,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2539,251 +2211,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2815,61 +2245,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3127,20 +2513,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3158,7 +2543,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:10">
+    <row r="1" spans="1:10" ht="28.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3190,7 +2575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="129" spans="1:10">
+    <row r="2" spans="1:10" ht="128.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3222,7 +2607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:6">
+    <row r="3" spans="1:10" ht="28.5">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -3242,7 +2627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:6">
+    <row r="4" spans="1:10" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -3262,7 +2647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="128.25" spans="1:10">
+    <row r="5" spans="1:10" ht="128.25">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -3294,7 +2679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="142.5" spans="1:10">
+    <row r="6" spans="1:10" ht="142.5">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -3326,7 +2711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="28.5" spans="1:10">
+    <row r="7" spans="1:10" ht="28.5">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -3350,7 +2735,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" ht="185.25" spans="1:10">
+    <row r="8" spans="1:10" ht="185.25">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -3382,7 +2767,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" ht="228" spans="1:10">
+    <row r="9" spans="1:10" ht="228">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
@@ -3414,7 +2799,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:6">
+    <row r="10" spans="1:10" ht="28.5">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -3434,7 +2819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" ht="142.5" spans="1:10">
+    <row r="11" spans="1:10" ht="142.5">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -3466,7 +2851,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" ht="142.5" spans="1:10">
+    <row r="12" spans="1:10" ht="142.5">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -3498,7 +2883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" ht="142.5" spans="1:10">
+    <row r="13" spans="1:10" ht="142.5">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -3530,7 +2915,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" ht="28.5" spans="1:6">
+    <row r="14" spans="1:10" ht="28.5">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
@@ -3550,7 +2935,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" ht="142.5" spans="1:10">
+    <row r="15" spans="1:10" ht="142.5">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -3582,7 +2967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" ht="28.5" spans="1:6">
+    <row r="16" spans="1:10" ht="28.5">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -3602,7 +2987,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" ht="171" spans="1:10">
+    <row r="17" spans="1:10" ht="171">
       <c r="A17" s="5" t="s">
         <v>81</v>
       </c>
@@ -3634,7 +3019,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" ht="171" spans="1:10">
+    <row r="18" spans="1:10" ht="171">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -3666,7 +3051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" ht="28.5" spans="1:6">
+    <row r="19" spans="1:10" ht="28.5">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
@@ -3686,7 +3071,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" ht="28.5" spans="1:6">
+    <row r="20" spans="1:10" ht="28.5">
       <c r="A20" s="5" t="s">
         <v>95</v>
       </c>
@@ -3706,7 +3091,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" ht="171" spans="1:10">
+    <row r="21" spans="1:10" ht="171">
       <c r="A21" s="5" t="s">
         <v>98</v>
       </c>
@@ -3738,7 +3123,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" ht="28.5" spans="1:3">
+    <row r="22" spans="1:10" ht="28.5">
       <c r="A22" s="5" t="s">
         <v>103</v>
       </c>
@@ -3748,8 +3133,17 @@
       <c r="C22" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" ht="28.5" spans="1:3">
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="28.5">
       <c r="A23" s="5" t="s">
         <v>105</v>
       </c>
@@ -3760,7 +3154,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" ht="114" spans="1:8">
+    <row r="24" spans="1:10" ht="114">
       <c r="A24" s="5" t="s">
         <v>107</v>
       </c>
@@ -3777,7 +3171,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" ht="42.75" spans="1:2">
+    <row r="25" spans="1:10" ht="42.75">
       <c r="A25" s="5" t="s">
         <v>111</v>
       </c>
@@ -3785,7 +3179,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" ht="28.5" spans="1:2">
+    <row r="26" spans="1:10" ht="28.5">
       <c r="A26" s="5" t="s">
         <v>112</v>
       </c>
@@ -3793,7 +3187,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" ht="28.5" spans="1:2">
+    <row r="27" spans="1:10" ht="28.5">
       <c r="A27" s="5" t="s">
         <v>113</v>
       </c>
@@ -3801,7 +3195,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" ht="28.5" spans="1:2">
+    <row r="28" spans="1:10" ht="28.5">
       <c r="A28" s="5" t="s">
         <v>114</v>
       </c>
@@ -3809,7 +3203,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" ht="28.5" spans="1:2">
+    <row r="29" spans="1:10" ht="28.5">
       <c r="A29" s="5" t="s">
         <v>115</v>
       </c>
@@ -3817,7 +3211,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" ht="28.5" spans="1:2">
+    <row r="30" spans="1:10" ht="28.5">
       <c r="A30" s="5" t="s">
         <v>116</v>
       </c>
@@ -3825,7 +3219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" ht="28.5" spans="1:2">
+    <row r="31" spans="1:10" ht="28.5">
       <c r="A31" s="5" t="s">
         <v>117</v>
       </c>
@@ -3833,7 +3227,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" ht="28.5" spans="1:2">
+    <row r="32" spans="1:10" ht="28.5">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
@@ -3841,7 +3235,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" ht="42.75" spans="1:7">
+    <row r="33" spans="1:7" ht="42.75">
       <c r="A33" s="5" t="s">
         <v>119</v>
       </c>
@@ -3852,7 +3246,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" ht="28.5" spans="1:2">
+    <row r="34" spans="1:7" ht="28.5">
       <c r="A34" s="5" t="s">
         <v>121</v>
       </c>
@@ -3860,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="28.5" spans="1:2">
+    <row r="35" spans="1:7" ht="28.5">
       <c r="A35" s="5" t="s">
         <v>122</v>
       </c>
@@ -3868,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="28.5" spans="1:7">
+    <row r="36" spans="1:7" ht="28.5">
       <c r="A36" s="5" t="s">
         <v>123</v>
       </c>
@@ -3882,7 +3276,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" ht="28.5" spans="1:7">
+    <row r="37" spans="1:7" ht="28.5">
       <c r="A37" s="5" t="s">
         <v>126</v>
       </c>
@@ -3893,7 +3287,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" ht="28.5" spans="1:7">
+    <row r="38" spans="1:7" ht="28.5">
       <c r="A38" s="5" t="s">
         <v>128</v>
       </c>
@@ -3904,7 +3298,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" ht="28.5" spans="1:7">
+    <row r="39" spans="1:7" ht="28.5">
       <c r="A39" s="5" t="s">
         <v>130</v>
       </c>
@@ -3915,7 +3309,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" ht="28.5" spans="1:7">
+    <row r="40" spans="1:7" ht="28.5">
       <c r="A40" s="5" t="s">
         <v>132</v>
       </c>
@@ -3926,7 +3320,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" ht="28.5" spans="1:7">
+    <row r="41" spans="1:7" ht="28.5">
       <c r="A41" s="5" t="s">
         <v>134</v>
       </c>
@@ -3938,8 +3332,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="137">
   <si>
     <t>关卡</t>
   </si>
@@ -2522,10 +2522,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3153,6 +3153,12 @@
       <c r="C23" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="114">
       <c r="A24" s="5" t="s">

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="138">
   <si>
     <t>关卡</t>
   </si>
@@ -2131,6 +2131,10 @@
   </si>
   <si>
     <t>平69 月70 远69 超69 枫69 胤70 秀69 蓉69 仪68</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>平73 月74 远76 超75 枫76 胤74 秀75 蓉75 仪74</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2525,7 +2529,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3159,6 +3163,9 @@
       <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="F23" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="114">
       <c r="A24" s="5" t="s">

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="138">
   <si>
     <t>关卡</t>
   </si>
@@ -3177,6 +3177,12 @@
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G24" s="5" t="s">
         <v>109</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="139">
   <si>
     <t>关卡</t>
   </si>
@@ -2135,6 +2135,10 @@
   </si>
   <si>
     <t>平73 月74 远76 超75 枫76 胤74 秀75 蓉75 仪74</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>平78 月77 远78 超79 枫78 胤78 秀77 蓉79 仪77</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2526,10 +2530,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3183,6 +3187,9 @@
       <c r="E24" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="F24" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="G24" s="5" t="s">
         <v>109</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="144">
   <si>
     <t>关卡</t>
   </si>
@@ -1945,59 +1945,966 @@
 RPG021</t>
   </si>
   <si>
+    <t>20
+（Stage20）</t>
+  </si>
+  <si>
+    <t>02  00  00  00  ff  ff  14  00  15  00  </t>
+  </si>
+  <si>
+    <t>21
+（Stage21）</t>
+  </si>
+  <si>
+    <t>02  00  00  00  ff  ff  15  00  16  00  </t>
+  </si>
+  <si>
+    <t>22
+（Stage22）</t>
+  </si>
+  <si>
+    <t>02  00  00  00  17  00  ff  ff  18  00  </t>
+  </si>
+  <si>
+    <t>开封L
+RPG023</t>
+  </si>
+  <si>
+    <t>23
+（Stage23、Stage24）</t>
+  </si>
+  <si>
+    <t>24
+（Stage25）</t>
+  </si>
+  <si>
+    <t>25
+（Stage26）</t>
+  </si>
+  <si>
+    <t>26
+（Stage27）</t>
+  </si>
+  <si>
+    <t>27
+（Stage28）</t>
+  </si>
+  <si>
+    <t>28
+（Stage29）</t>
+  </si>
+  <si>
+    <t>29
+（Stage30）</t>
+  </si>
+  <si>
+    <t>30
+（Stage31）</t>
+  </si>
+  <si>
+    <t>31
+（Stage32）</t>
+  </si>
+  <si>
+    <t>提供跳转到第35关
+（stage36)</t>
+  </si>
+  <si>
+    <t>32
+（Stage33）</t>
+  </si>
+  <si>
+    <t>33
+（Stage34）</t>
+  </si>
+  <si>
+    <t>34
+（Stage35）</t>
+  </si>
+  <si>
+    <t>02  00  00  00  ff  ff  ff  ff  23  00  </t>
+  </si>
+  <si>
+    <t>200块关卡</t>
+  </si>
+  <si>
+    <t>35
+（Stage36）</t>
+  </si>
+  <si>
+    <t>扩展1</t>
+  </si>
+  <si>
+    <t>36
+（Stage37）</t>
+  </si>
+  <si>
+    <t>扩展2</t>
+  </si>
+  <si>
+    <t>37
+（Stage38）</t>
+  </si>
+  <si>
+    <t>扩展3</t>
+  </si>
+  <si>
+    <t>38
+（Stage39）</t>
+  </si>
+  <si>
+    <t>扩展4</t>
+  </si>
+  <si>
+    <t>39
+（Stage40）</t>
+  </si>
+  <si>
+    <t>扩展5</t>
+  </si>
+  <si>
+    <t>平69 月70 远69 超69 枫69 胤70 秀69 蓉69 仪68</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>平73 月74 远76 超75 枫76 胤74 秀75 蓉75 仪74</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>平78 月77 远78 超79 枫78 胤78 秀77 蓉79 仪77</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>0x01C6玄武甲彀
 0x00A2天狼血眼
 0x00A3如意金囊
 0x00A5蟠龍玉帶0x00CA水靈珠花
 0x00CC朱蕊晶花
 0x00CD昂昴角簪</t>
-  </si>
-  <si>
-    <t>20
-（Stage20）</t>
-  </si>
-  <si>
-    <t>02  00  00  00  ff  ff  14  00  15  00  </t>
-  </si>
-  <si>
-    <t>21
-（Stage21）</t>
-  </si>
-  <si>
-    <t>02  00  00  00  ff  ff  15  00  16  00  </t>
-  </si>
-  <si>
-    <t>22
-（Stage22）</t>
-  </si>
-  <si>
-    <t>02  00  00  00  17  00  ff  ff  18  00  </t>
-  </si>
-  <si>
-    <t>开封L
-RPG023</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x00DC金疮药
-0x00DD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">大补丸
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x0007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>封陣劍
+0x001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>翠玉匕首
+0x003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑玉短戈
+0x003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鋼煞劍
+0x002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紫絹金索
+0x004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">金剛杖
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x004E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">燕返刃
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x01F9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>銅翎短劍
+0x006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>薄鋼環甲
+0x007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>妖骨冑
+0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>銀狐披肩
+0x008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>護法僧衣</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+0x0007封陣劍
+0x0009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玄真劍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+0x0017翠玉匕首
+0x0014辟邪玉劍
+0x01F9銅翎短劍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1FA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">鑄紫靈刃
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x0031</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑玉短戈
+0x00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">火銅矛
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x003A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鋼煞劍
+0x003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">玄鐵劍
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x0027</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紫絹金索
+0x002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">冰蠶玉帶
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x0046</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金剛杖
+0x004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8封禪明杵
+0x004E燕返刃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F星幻子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9鋼襯武衣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6銅鱗甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2朱綢法衣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F無相禪衣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x0094朧影織衣</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x009E辟邪玉佩
+0x00A1清神净玉
+0x00A4护命神符
+0x009B龙骨项链</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0x00B9佛珠
+0x00BE赤练火铜
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x01C6玄武甲彀</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x01C6玄武甲彀
+0x009C黑玉蛇戒
+0x009D密法護印
+0x009F瑯環玉璧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x00CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">火紋金釵
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x00CB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">琉璃星簪
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x00C9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冰凜銀鐲</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x01C6玄武甲彀
+0x00BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">赤练火铜
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x00CA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">水靈珠花
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x00CC朱蕊晶花
+0x00CD昂昴角簪
+0x00CE火紋金釵
+0x00CB琉璃星簪
+0x009F瑯環玉璧
+0x00A2天狼血眼
+0x00A3如意金囊
+0x00A5蟠龍玉帶</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x00DC金疮药
+0x00DD大补丸
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x00DE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">九花玉露
 0x00E5龙涎清血丹
 0x00E6通脉补心丸
 0x00E7绮罗天香
@@ -2006,6 +2913,28 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x00E8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">冰蟾砂
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -2013,6 +2942,7 @@
       </rPr>
       <t xml:space="preserve">0x01BF乌草
 0x01C1十里芍藥
+0x01C2玉絳草
 </t>
     </r>
     <r>
@@ -2020,10 +2950,11 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x01C2</t>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x01D4</t>
     </r>
     <r>
       <rPr>
@@ -2033,127 +2964,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>玉絳草</t>
-    </r>
-  </si>
-  <si>
-    <t>23
-（Stage23、Stage24）</t>
-  </si>
-  <si>
-    <t>24
-（Stage25）</t>
-  </si>
-  <si>
-    <t>25
-（Stage26）</t>
-  </si>
-  <si>
-    <t>26
-（Stage27）</t>
-  </si>
-  <si>
-    <t>27
-（Stage28）</t>
-  </si>
-  <si>
-    <t>28
-（Stage29）</t>
-  </si>
-  <si>
-    <t>29
-（Stage30）</t>
-  </si>
-  <si>
-    <t>30
-（Stage31）</t>
-  </si>
-  <si>
-    <t>31
-（Stage32）</t>
-  </si>
-  <si>
-    <t>提供跳转到第35关
-（stage36)</t>
-  </si>
-  <si>
-    <t>32
-（Stage33）</t>
-  </si>
-  <si>
-    <t>33
-（Stage34）</t>
-  </si>
-  <si>
-    <t>34
-（Stage35）</t>
-  </si>
-  <si>
-    <t>02  00  00  00  ff  ff  ff  ff  23  00  </t>
-  </si>
-  <si>
-    <t>200块关卡</t>
-  </si>
-  <si>
-    <t>35
-（Stage36）</t>
-  </si>
-  <si>
-    <t>扩展1</t>
-  </si>
-  <si>
-    <t>36
-（Stage37）</t>
-  </si>
-  <si>
-    <t>扩展2</t>
-  </si>
-  <si>
-    <t>37
-（Stage38）</t>
-  </si>
-  <si>
-    <t>扩展3</t>
-  </si>
-  <si>
-    <t>38
-（Stage39）</t>
-  </si>
-  <si>
-    <t>扩展4</t>
-  </si>
-  <si>
-    <t>39
-（Stage40）</t>
-  </si>
-  <si>
-    <t>扩展5</t>
-  </si>
-  <si>
-    <t>平69 月70 远69 超69 枫69 胤70 秀69 蓉69 仪68</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>平73 月74 远76 超75 枫76 胤74 秀75 蓉75 仪74</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>平78 月77 远78 超79 枫78 胤78 秀77 蓉79 仪77</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+      <t>漱玉香囊</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2184,6 +3004,22 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2249,7 +3085,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2530,10 +3366,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2608,8 +3444,8 @@
       <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>17</v>
+      <c r="I2" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>18</v>
@@ -2968,8 +3804,8 @@
       <c r="H15" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>63</v>
+      <c r="I15" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>69</v>
@@ -3125,21 +3961,21 @@
         <v>77</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>91</v>
+        <v>137</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.5">
       <c r="A22" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="1">
         <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
@@ -3148,18 +3984,18 @@
         <v>38</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="28.5">
       <c r="A23" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1">
         <v>72</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
@@ -3168,18 +4004,18 @@
         <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="114">
+    <row r="24" spans="1:10" ht="313.5">
       <c r="A24" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="1">
         <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -3188,18 +4024,24 @@
         <v>38</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>110</v>
+        <v>143</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="42.75">
       <c r="A25" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1">
         <v>80</v>
@@ -3207,7 +4049,7 @@
     </row>
     <row r="26" spans="1:10" ht="28.5">
       <c r="A26" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" s="1">
         <v>84</v>
@@ -3215,7 +4057,7 @@
     </row>
     <row r="27" spans="1:10" ht="28.5">
       <c r="A27" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B27" s="1">
         <v>88</v>
@@ -3223,7 +4065,7 @@
     </row>
     <row r="28" spans="1:10" ht="28.5">
       <c r="A28" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1">
         <v>92</v>
@@ -3231,7 +4073,7 @@
     </row>
     <row r="29" spans="1:10" ht="28.5">
       <c r="A29" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1">
         <v>96</v>
@@ -3239,7 +4081,7 @@
     </row>
     <row r="30" spans="1:10" ht="28.5">
       <c r="A30" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1">
         <v>100</v>
@@ -3247,7 +4089,7 @@
     </row>
     <row r="31" spans="1:10" ht="28.5">
       <c r="A31" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" s="1">
         <v>110</v>
@@ -3255,7 +4097,7 @@
     </row>
     <row r="32" spans="1:10" ht="28.5">
       <c r="A32" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32" s="1">
         <v>110</v>
@@ -3263,18 +4105,18 @@
     </row>
     <row r="33" spans="1:7" ht="42.75">
       <c r="A33" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.5">
       <c r="A34" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -3282,7 +4124,7 @@
     </row>
     <row r="35" spans="1:7" ht="28.5">
       <c r="A35" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -3290,75 +4132,75 @@
     </row>
     <row r="36" spans="1:7" ht="28.5">
       <c r="A36" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.5">
       <c r="A37" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.5">
       <c r="A38" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28.5">
       <c r="A39" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28.5">
       <c r="A40" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="28.5">
       <c r="A41" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\reborn2\相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\reborn2\相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2816,6 +2816,92 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x00DC金疮药
+0x00DD大补丸
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x00DE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">九花玉露
+0x00E5龙涎清血丹
+0x00E6通脉补心丸
+0x00E7绮罗天香
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x00E8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">冰蟾砂
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0x01BF乌草
+0x01C1十里芍藥
+0x01C2玉絳草
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>0x01C6玄武甲彀
 0x00BE</t>
     </r>
@@ -2868,103 +2954,8 @@
 0x009F瑯環玉璧
 0x00A2天狼血眼
 0x00A3如意金囊
-0x00A5蟠龍玉帶</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x00DC金疮药
-0x00DD大补丸
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x00DE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">九花玉露
-0x00E5龙涎清血丹
-0x00E6通脉补心丸
-0x00E7绮罗天香
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x00E8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">冰蟾砂
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0x01BF乌草
-0x01C1十里芍藥
-0x01C2玉絳草
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x01D4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>漱玉香囊</t>
+0x00A5蟠龍玉帶
+0x01D4漱玉香囊</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3366,10 +3357,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4029,11 +4020,11 @@
       <c r="G24" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>139</v>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
   <si>
     <t>关卡</t>
   </si>
@@ -3357,10 +3357,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4037,6 +4037,9 @@
       <c r="B25" s="1">
         <v>80</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="28.5">
       <c r="A26" s="5" t="s">

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -3357,10 +3357,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
-  <si>
-    <t>关卡</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="155">
   <si>
     <t>核心等级参考
 (隐藏等级+战场等级）</t>
@@ -2957,6 +2954,68 @@
 0x00A5蟠龍玉帶
 0x01D4漱玉香囊</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做挑战boss剧情，韩千秀单挑（普攻无法击杀，需要烈法符+破邪银针），BOSS重新调色。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做挑战boss剧情，BOSS零防满抗，真胤需要连击武器反击+高攻武器释放金刚法輪（设置一个机关，需要有偶数个我方单位越过XX线触发计数，否则每回合触发全员掉血事件）BOSS重新调色。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣将拥有一个完全一样的分身，两个死亡其一，就结束战斗，两个死亡均掉落青龙道装。触发剑圣真身挑战时，紫枫全程无法移动出限定区域。考虑做成宝藏关。20回合内结束战斗，可以获得七环剑婴。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做隐藏道具获取剧情，空中所有地形均有陷阱，中间留1个宝箱落脚点。需要揽风+蓄力踩上宝箱，才能免除机关触发。考虑到式鬼bug，该事件不能由式鬼触发。重做地形，平平无法一回合蓄力走上台阶，需要日轮/低防队友送死，掩护前行。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷级关卡。老头可控。参考七色璎珞判定和移除事件，新增一个事件触发点【X回合之前达到可触发】，每有1个八络血参/冰核仙实，替换成2个对应的升级品，最多触发5次。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一保留经验关卡，用于满级单位升级学习技能。同时在地图角落里召唤7个赤练鬼，击杀任意一个即可过关。包括各个种类：惧物理、惧雷系、惧火系、惧冰系、惧幻系、惧华系、惧冥系。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整剑邪的移动力，修改特技0消耗0移动力要求，十字范围攻击，攻击9999必定秒人。破关策略为式鬼/日轮/无敌硬抗伤害，远程输出，剑邪需要保持无buff状态，否则难度很大。殷剑平触发剑邪回忆剧情后，剑邪装备更换成较弱的武器（秒不了鲜于超），殷剑平移动路径上设置路过触发陷阱，触发后，剑邪瞬移至回忆剧情触发点附近。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入特别幕关卡。删除所有宝箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与原版保持一致。删除所有宝箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚩尤心脏雷免/幻免，每回合满血，需要优先击杀头部，才可以取消每回合心脏满血的事件，击杀头部后，地图最外围增援一波敌人（秒人），需要在敌人到达之前，强杀心脏。调整头部所在地形，可站人。头部没有普通攻击（攻击距离为0），只有特技（避免bug），近身秒人 OR 范围aoe+毒伤/麻痹/封咒。头部周围，每当踏入我方单位，就会召唤一波小兵（小兵死亡前，是不会再次召唤的，参考reborn版饕餮无限复活）。骈左右手/左右手的攻击范围固定，交叉叠加。地图多处设置无敌的守卫敌人，移动时需要合理规避，击杀腐沫魔疮之后，对应守卫消失。【建议击杀顺序：骈左右手/左右手-&gt;腐沫魔疮-&gt;头部-&gt;心脏】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全重制，冰璃登场。全明星敌人登场，各自统帅一方200块。【限制一切召唤单位？】
+地图中有多处陷阱，触发后，会触发某一批次全明星敌人登场。
+【全明星敌人汇总】两佰块攻击范围1~2 两佰术士攻击范围1 两佰士兵攻击范围1~3
+高世津            ：两佰块*4 两佰术士*3 两佰士兵*4  
+高戚               ：两佰块*4 两佰术士*3 两佰士兵*4
+朱慎               ：两佰块*3 两佰术士*3 两佰士兵*3
+郸阴               ：两佰块*3 两佰术士*3 两佰士兵*3
+韩无砂            ：两佰块*3 两佰术士*3 两佰士兵*3
+灵山老人         ：两佰块*3 两佰术士*3 两佰士兵*3
+魔化封寒月      ： 两佰块*4 两佰术士*4 两佰士兵*4
+鬼魄尸王         ：两佰块*2 两佰术士*3 两佰士兵*6（尸王死亡后，无限重复触发，地图下半段纵向跨越即可触发）
+赤练鬼            ：两佰块*2 两佰术士*3 两佰士兵*6（赤练鬼死亡后，无限重复触发，地图中上段纵向跨越即可触发）
+两佰之王         ： 两佰块*8 两佰术士*5 两佰士兵*8 （初始战场）【防禦超高，只能靠會心/夏侯儀技能 破防，無普攻（攻击距离为0），只有特技（避免攻擊動畫bug）】
+两佰恶魔+剑圣：两佰士兵*10 两佰块*5（地图顶部）【兩佰惡魔需要騙反上毒擊殺】
+两佰小鬼+剑邪：两佰术士*10 两佰块*5（地图底部）【法系BOSS】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3354,13 +3413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3375,195 +3434,196 @@
     <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="19.125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="80.125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5">
       <c r="A1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="128.25">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.5">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.5">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="128.25">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="142.5">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.5">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
@@ -3572,625 +3632,658 @@
     </row>
     <row r="8" spans="1:10" ht="185.25">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="228">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1">
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.5">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="142.5">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1">
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="142.5">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1">
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="142.5">
       <c r="A13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1">
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.5">
       <c r="A14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1">
         <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="142.5">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1">
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="I15" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5">
       <c r="A16" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1">
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="7" t="s">
+    </row>
+    <row r="17" spans="1:11" ht="171">
+      <c r="A17" s="5" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="171">
-      <c r="A17" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="B17" s="1">
         <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="8" t="s">
+    </row>
+    <row r="18" spans="1:11" ht="171">
+      <c r="A18" s="5" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="171">
-      <c r="A18" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="B18" s="1">
         <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="8" t="s">
+    </row>
+    <row r="19" spans="1:11" ht="28.5">
+      <c r="A19" s="5" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="28.5">
-      <c r="A19" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="B19" s="1">
         <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:11" ht="28.5">
+      <c r="A20" s="5" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="28.5">
-      <c r="A20" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="B20" s="1">
         <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="171">
+      <c r="A21" s="5" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="171">
-      <c r="A21" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="B21" s="1">
         <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="28.5">
+      <c r="A22" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="28.5">
-      <c r="A22" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="B22" s="1">
         <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.5">
+      <c r="A23" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="28.5">
-      <c r="A23" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="B23" s="1">
         <v>72</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="313.5">
+      <c r="A24" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="313.5">
-      <c r="A24" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="B24" s="1">
         <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="42.75">
+      <c r="A25" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="42.75">
-      <c r="A25" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="B25" s="1">
         <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28.5">
+    <row r="26" spans="1:11" ht="28.5">
       <c r="A26" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" s="1">
         <v>84</v>
       </c>
+      <c r="K26" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" ht="28.5">
+    <row r="27" spans="1:11" ht="28.5">
       <c r="A27" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" s="1">
         <v>88</v>
       </c>
+      <c r="K27" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" ht="28.5">
+    <row r="28" spans="1:11" ht="28.5">
       <c r="A28" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1">
         <v>92</v>
       </c>
+      <c r="K28" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" ht="28.5">
+    <row r="29" spans="1:11" ht="28.5">
       <c r="A29" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" s="1">
         <v>96</v>
       </c>
+      <c r="K29" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" ht="28.5">
+    <row r="30" spans="1:11" ht="28.5">
       <c r="A30" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1">
         <v>100</v>
       </c>
+      <c r="K30" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" ht="28.5">
+    <row r="31" spans="1:11" ht="28.5">
       <c r="A31" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" s="1">
         <v>110</v>
       </c>
+      <c r="K31" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" ht="28.5">
+    <row r="32" spans="1:11" ht="28.5">
       <c r="A32" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="1">
         <v>110</v>
       </c>
+      <c r="K32" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" ht="42.75">
+    <row r="33" spans="1:11" ht="42.75">
       <c r="A33" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="28.5">
+      <c r="A34" s="5" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28.5">
-      <c r="A34" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
+      <c r="K34" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="35" spans="1:7" ht="28.5">
+    <row r="35" spans="1:11" ht="28.5">
       <c r="A35" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
       </c>
+      <c r="K35" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="36" spans="1:7" ht="28.5">
+    <row r="36" spans="1:11" ht="273" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="K36" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="28.5">
+      <c r="A37" s="5" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="28.5">
-      <c r="A37" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="28.5">
+      <c r="A38" s="5" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.5">
-      <c r="A38" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="28.5">
+      <c r="A39" s="5" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="28.5">
-      <c r="A39" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="28.5">
+      <c r="A40" s="5" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="28.5">
-      <c r="A40" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="28.5">
+      <c r="A41" s="5" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="28.5">
-      <c r="A41" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\reborn2\相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leaf\reborn2\相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="157">
   <si>
     <t>核心等级参考
 (隐藏等级+战场等级）</t>
@@ -3018,11 +3018,19 @@
     <t>关卡</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>leaf（天炎）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>平83 月81 远82 超82 枫81 胤82 秀81 蓉81 仪81</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -3416,13 +3424,13 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
@@ -3438,7 +3446,7 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5">
+    <row r="1" spans="1:10" ht="40.5">
       <c r="A1" s="3" t="s">
         <v>154</v>
       </c>
@@ -3470,7 +3478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="128.25">
+    <row r="2" spans="1:10" ht="121.5">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -3502,7 +3510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5">
+    <row r="3" spans="1:10" ht="27">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -3522,7 +3530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.5">
+    <row r="4" spans="1:10" ht="27">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -3542,7 +3550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="128.25">
+    <row r="5" spans="1:10" ht="121.5">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -3574,7 +3582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="142.5">
+    <row r="6" spans="1:10" ht="135">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -3606,7 +3614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.5">
+    <row r="7" spans="1:10" ht="27">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -3630,7 +3638,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="185.25">
+    <row r="8" spans="1:10" ht="175.5">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -3662,7 +3670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="228">
+    <row r="9" spans="1:10" ht="216">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -3694,7 +3702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.5">
+    <row r="10" spans="1:10" ht="27">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -3714,7 +3722,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="142.5">
+    <row r="11" spans="1:10" ht="135">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -3746,7 +3754,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="142.5">
+    <row r="12" spans="1:10" ht="135">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -3778,7 +3786,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="142.5">
+    <row r="13" spans="1:10" ht="135">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
@@ -3810,7 +3818,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.5">
+    <row r="14" spans="1:10" ht="27">
       <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
@@ -3830,7 +3838,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="142.5">
+    <row r="15" spans="1:10" ht="135">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -3862,7 +3870,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.5">
+    <row r="16" spans="1:10" ht="27">
       <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3882,7 +3890,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="171">
+    <row r="17" spans="1:11" ht="162">
       <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
@@ -3914,7 +3922,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="171">
+    <row r="18" spans="1:11" ht="162">
       <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
@@ -3946,7 +3954,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.5">
+    <row r="19" spans="1:11" ht="27">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3966,7 +3974,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.5">
+    <row r="20" spans="1:11" ht="27">
       <c r="A20" s="5" t="s">
         <v>94</v>
       </c>
@@ -3986,7 +3994,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="171">
+    <row r="21" spans="1:11" ht="162">
       <c r="A21" s="5" t="s">
         <v>97</v>
       </c>
@@ -4018,7 +4026,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.5">
+    <row r="22" spans="1:11" ht="27">
       <c r="A22" s="5" t="s">
         <v>101</v>
       </c>
@@ -4038,7 +4046,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.5">
+    <row r="23" spans="1:11" ht="27">
       <c r="A23" s="5" t="s">
         <v>103</v>
       </c>
@@ -4058,7 +4066,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="313.5">
+    <row r="24" spans="1:11" ht="297">
       <c r="A24" s="5" t="s">
         <v>105</v>
       </c>
@@ -4090,7 +4098,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="42.75">
+    <row r="25" spans="1:11" ht="40.5">
       <c r="A25" s="5" t="s">
         <v>108</v>
       </c>
@@ -4100,8 +4108,14 @@
       <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="26" spans="1:11" ht="28.5">
+    <row r="26" spans="1:11" ht="27">
       <c r="A26" s="5" t="s">
         <v>109</v>
       </c>
@@ -4112,7 +4126,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="28.5">
+    <row r="27" spans="1:11" ht="27">
       <c r="A27" s="5" t="s">
         <v>110</v>
       </c>
@@ -4123,7 +4137,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="28.5">
+    <row r="28" spans="1:11" ht="27">
       <c r="A28" s="5" t="s">
         <v>111</v>
       </c>
@@ -4134,7 +4148,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="28.5">
+    <row r="29" spans="1:11" ht="27">
       <c r="A29" s="5" t="s">
         <v>112</v>
       </c>
@@ -4145,7 +4159,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="28.5">
+    <row r="30" spans="1:11" ht="27">
       <c r="A30" s="5" t="s">
         <v>113</v>
       </c>
@@ -4156,7 +4170,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28.5">
+    <row r="31" spans="1:11" ht="27">
       <c r="A31" s="5" t="s">
         <v>114</v>
       </c>
@@ -4167,7 +4181,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.5">
+    <row r="32" spans="1:11" ht="27">
       <c r="A32" s="5" t="s">
         <v>115</v>
       </c>
@@ -4178,7 +4192,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="42.75">
+    <row r="33" spans="1:11" ht="40.5">
       <c r="A33" s="5" t="s">
         <v>116</v>
       </c>
@@ -4192,7 +4206,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="28.5">
+    <row r="34" spans="1:11" ht="27">
       <c r="A34" s="5" t="s">
         <v>118</v>
       </c>
@@ -4203,7 +4217,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="28.5">
+    <row r="35" spans="1:11" ht="27">
       <c r="A35" s="5" t="s">
         <v>119</v>
       </c>
@@ -4231,7 +4245,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="28.5">
+    <row r="37" spans="1:11" ht="27">
       <c r="A37" s="5" t="s">
         <v>123</v>
       </c>
@@ -4242,7 +4256,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="28.5">
+    <row r="38" spans="1:11" ht="27">
       <c r="A38" s="5" t="s">
         <v>125</v>
       </c>
@@ -4253,7 +4267,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="28.5">
+    <row r="39" spans="1:11" ht="27">
       <c r="A39" s="5" t="s">
         <v>127</v>
       </c>
@@ -4264,7 +4278,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="28.5">
+    <row r="40" spans="1:11" ht="27">
       <c r="A40" s="5" t="s">
         <v>129</v>
       </c>
@@ -4275,7 +4289,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="28.5">
+    <row r="41" spans="1:11" ht="27">
       <c r="A41" s="5" t="s">
         <v>131</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leaf\reborn2\相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\reborn2\相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="159">
   <si>
     <t>核心等级参考
 (隐藏等级+战场等级）</t>
@@ -76,6 +76,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -90,6 +91,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -100,6 +102,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -112,6 +115,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -125,6 +129,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -138,6 +143,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -209,6 +215,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -228,6 +235,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -267,6 +275,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -280,6 +289,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,6 +303,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -305,6 +316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -316,6 +328,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -328,6 +341,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,6 +352,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -356,6 +371,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -382,6 +398,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -393,6 +410,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -405,6 +423,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -415,6 +434,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -435,6 +455,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -465,6 +486,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -475,6 +497,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -485,6 +508,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -495,6 +519,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -505,6 +530,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -515,6 +541,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -525,6 +552,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -535,6 +563,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -545,6 +574,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -555,6 +585,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -571,6 +602,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -585,6 +617,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -597,6 +630,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -610,6 +644,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -623,6 +658,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -634,6 +670,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -644,6 +681,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -655,6 +693,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -665,6 +704,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -676,6 +716,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -686,6 +727,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -698,6 +740,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -715,6 +758,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -725,6 +769,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -734,6 +779,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -753,6 +799,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -763,6 +810,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -773,6 +821,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -783,6 +832,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -793,6 +843,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -803,6 +854,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -813,6 +865,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,6 +876,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -833,6 +887,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -849,6 +904,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -863,6 +919,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -874,6 +931,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -884,6 +942,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -896,6 +955,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -909,6 +969,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -920,6 +981,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -930,6 +992,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -941,6 +1004,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -951,6 +1015,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -962,6 +1027,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -972,6 +1038,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1003,6 +1070,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1013,6 +1081,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1023,6 +1092,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1033,6 +1103,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1043,6 +1114,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1053,6 +1125,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1063,6 +1136,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1073,6 +1147,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1083,6 +1158,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1118,6 +1194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1128,6 +1205,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1154,6 +1232,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,6 +1247,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1199,6 +1279,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1209,6 +1290,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1234,6 +1316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1244,6 +1327,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1255,6 +1339,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1265,6 +1350,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1276,6 +1362,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1286,6 +1373,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1297,6 +1385,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1307,6 +1396,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1318,6 +1408,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1328,6 +1419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1339,6 +1431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1349,6 +1442,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1360,6 +1454,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1370,6 +1465,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1381,6 +1477,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1391,6 +1488,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1402,6 +1500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1412,6 +1511,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1423,6 +1523,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1433,6 +1534,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1444,6 +1546,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1454,6 +1557,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1465,6 +1569,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1475,6 +1580,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1494,6 +1600,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1504,6 +1611,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1514,6 +1622,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1524,6 +1633,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1534,6 +1644,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1544,6 +1655,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1554,6 +1666,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1564,6 +1677,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1574,6 +1688,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1584,6 +1699,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1594,6 +1710,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1604,6 +1721,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1614,6 +1732,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1624,6 +1743,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1634,6 +1754,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1644,6 +1765,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1660,6 +1782,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1670,6 +1793,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1681,6 +1805,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1691,6 +1816,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1702,6 +1828,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1712,6 +1839,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1723,6 +1851,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1733,6 +1862,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1744,6 +1874,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1754,6 +1885,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1765,6 +1897,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1775,6 +1908,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1786,6 +1920,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1796,6 +1931,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1807,6 +1943,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1817,6 +1954,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1828,6 +1966,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1838,6 +1977,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1849,6 +1989,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1859,6 +2000,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1870,6 +2012,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,6 +2023,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1891,6 +2035,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1901,6 +2046,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2089,6 +2235,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2100,6 +2247,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2110,6 +2258,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2121,6 +2270,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2131,6 +2281,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2142,6 +2293,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2152,6 +2304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2163,6 +2316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2173,6 +2327,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2184,6 +2339,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2194,6 +2350,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2205,6 +2362,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2215,6 +2373,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2226,6 +2385,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2236,6 +2396,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,6 +2408,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2257,6 +2419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2268,6 +2431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2278,6 +2442,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2289,6 +2454,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2299,6 +2465,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2310,6 +2477,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2320,6 +2488,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2338,6 +2507,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2362,6 +2532,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2384,6 +2555,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2406,6 +2578,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2428,6 +2601,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2450,6 +2624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2472,6 +2647,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2494,6 +2670,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2516,6 +2693,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2538,6 +2716,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2561,6 +2740,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2583,6 +2763,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2605,6 +2786,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2627,6 +2809,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2649,6 +2832,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2671,6 +2855,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2696,6 +2881,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2709,6 +2895,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2722,6 +2909,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2741,6 +2929,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2752,6 +2941,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2762,6 +2952,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2773,6 +2964,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2783,6 +2975,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2794,6 +2987,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2804,6 +2998,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2817,6 +3012,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2840,6 +3036,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2865,6 +3062,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2876,6 +3074,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2907,6 +3106,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2929,6 +3129,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3026,12 +3227,201 @@
     <t>平83 月81 远82 超82 枫81 胤82 秀81 蓉81 仪81</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>平8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 远8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 超8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 枫8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 胤8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 秀8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 蓉8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 仪8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3043,6 +3433,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3050,24 +3441,19 @@
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3075,7 +3461,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3117,7 +3503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3145,6 +3531,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3427,10 +3816,10 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
@@ -3446,7 +3835,7 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40.5">
+    <row r="1" spans="1:10" ht="28.5">
       <c r="A1" s="3" t="s">
         <v>154</v>
       </c>
@@ -3478,7 +3867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="121.5">
+    <row r="2" spans="1:10" ht="128.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -3510,7 +3899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="27">
+    <row r="3" spans="1:10" ht="28.5">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -3530,7 +3919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27">
+    <row r="4" spans="1:10" ht="28.5">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -3550,7 +3939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="121.5">
+    <row r="5" spans="1:10" ht="128.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -3582,7 +3971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="135">
+    <row r="6" spans="1:10" ht="142.5">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -3614,7 +4003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27">
+    <row r="7" spans="1:10" ht="28.5">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -3638,7 +4027,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="175.5">
+    <row r="8" spans="1:10" ht="185.25">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -3670,7 +4059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="216">
+    <row r="9" spans="1:10" ht="228">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -3702,7 +4091,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27">
+    <row r="10" spans="1:10" ht="28.5">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -3722,7 +4111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="135">
+    <row r="11" spans="1:10" ht="142.5">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -3754,7 +4143,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="135">
+    <row r="12" spans="1:10" ht="142.5">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -3786,7 +4175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="135">
+    <row r="13" spans="1:10" ht="142.5">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
@@ -3818,7 +4207,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="27">
+    <row r="14" spans="1:10" ht="28.5">
       <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
@@ -3838,7 +4227,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="135">
+    <row r="15" spans="1:10" ht="142.5">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -3870,7 +4259,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="27">
+    <row r="16" spans="1:10" ht="28.5">
       <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
@@ -3890,7 +4279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="162">
+    <row r="17" spans="1:11" ht="171">
       <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
@@ -3922,7 +4311,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="162">
+    <row r="18" spans="1:11" ht="171">
       <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
@@ -3954,7 +4343,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="27">
+    <row r="19" spans="1:11" ht="28.5">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -3974,7 +4363,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="27">
+    <row r="20" spans="1:11" ht="28.5">
       <c r="A20" s="5" t="s">
         <v>94</v>
       </c>
@@ -3994,7 +4383,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="162">
+    <row r="21" spans="1:11" ht="171">
       <c r="A21" s="5" t="s">
         <v>97</v>
       </c>
@@ -4026,7 +4415,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="27">
+    <row r="22" spans="1:11" ht="28.5">
       <c r="A22" s="5" t="s">
         <v>101</v>
       </c>
@@ -4046,7 +4435,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="27">
+    <row r="23" spans="1:11" ht="28.5">
       <c r="A23" s="5" t="s">
         <v>103</v>
       </c>
@@ -4066,7 +4455,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="297">
+    <row r="24" spans="1:11" ht="313.5">
       <c r="A24" s="5" t="s">
         <v>105</v>
       </c>
@@ -4098,7 +4487,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="40.5">
+    <row r="25" spans="1:11" ht="42.75">
       <c r="A25" s="5" t="s">
         <v>108</v>
       </c>
@@ -4115,29 +4504,41 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="27">
+    <row r="26" spans="1:11" ht="28.5">
       <c r="A26" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B26" s="1">
         <v>84</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="K26" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="27">
+    <row r="27" spans="1:11" ht="28.5">
       <c r="A27" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B27" s="1">
         <v>88</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="K27" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="27">
+    <row r="28" spans="1:11" ht="28.5">
       <c r="A28" s="5" t="s">
         <v>111</v>
       </c>
@@ -4148,7 +4549,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="27">
+    <row r="29" spans="1:11" ht="28.5">
       <c r="A29" s="5" t="s">
         <v>112</v>
       </c>
@@ -4159,7 +4560,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="27">
+    <row r="30" spans="1:11" ht="28.5">
       <c r="A30" s="5" t="s">
         <v>113</v>
       </c>
@@ -4170,7 +4571,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="27">
+    <row r="31" spans="1:11" ht="28.5">
       <c r="A31" s="5" t="s">
         <v>114</v>
       </c>
@@ -4181,7 +4582,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="27">
+    <row r="32" spans="1:11" ht="28.5">
       <c r="A32" s="5" t="s">
         <v>115</v>
       </c>
@@ -4192,7 +4593,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="40.5">
+    <row r="33" spans="1:11" ht="42.75">
       <c r="A33" s="5" t="s">
         <v>116</v>
       </c>
@@ -4206,7 +4607,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="27">
+    <row r="34" spans="1:11" ht="28.5">
       <c r="A34" s="5" t="s">
         <v>118</v>
       </c>
@@ -4217,7 +4618,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="27">
+    <row r="35" spans="1:11" ht="28.5">
       <c r="A35" s="5" t="s">
         <v>119</v>
       </c>
@@ -4245,7 +4646,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="27">
+    <row r="37" spans="1:11" ht="28.5">
       <c r="A37" s="5" t="s">
         <v>123</v>
       </c>
@@ -4256,7 +4657,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="27">
+    <row r="38" spans="1:11" ht="28.5">
       <c r="A38" s="5" t="s">
         <v>125</v>
       </c>
@@ -4267,7 +4668,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="27">
+    <row r="39" spans="1:11" ht="28.5">
       <c r="A39" s="5" t="s">
         <v>127</v>
       </c>
@@ -4278,7 +4679,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="27">
+    <row r="40" spans="1:11" ht="28.5">
       <c r="A40" s="5" t="s">
         <v>129</v>
       </c>
@@ -4289,7 +4690,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="27">
+    <row r="41" spans="1:11" ht="28.5">
       <c r="A41" s="5" t="s">
         <v>131</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="160">
   <si>
     <t>核心等级参考
 (隐藏等级+战场等级）</t>
@@ -3414,6 +3414,43 @@
   </si>
   <si>
     <t>leaf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>91 月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 远91 超89 枫90 胤90 秀91 蓉90 仪90</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3813,10 +3850,10 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4534,6 +4571,12 @@
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E27" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="K27" s="2" t="s">
         <v>144</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="160">
   <si>
     <t>核心等级参考
 (隐藏等级+战场等级）</t>
@@ -3850,10 +3850,10 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4588,6 +4588,9 @@
       <c r="B28" s="1">
         <v>92</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="K28" s="2" t="s">
         <v>145</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="161">
   <si>
     <t>核心等级参考
 (隐藏等级+战场等级）</t>
@@ -3450,6 +3450,43 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 远91 超89 枫90 胤90 秀91 蓉90 仪90</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98 月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 远94 超94 枫91 胤93 秀91 蓉93 仪93</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3853,7 +3890,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4591,6 +4628,12 @@
       <c r="D28" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="K28" s="2" t="s">
         <v>145</v>
       </c>
@@ -4601,6 +4644,9 @@
       </c>
       <c r="B29" s="1">
         <v>96</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>146</v>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>核心等级参考
 (隐藏等级+战场等级）</t>
@@ -3155,22 +3155,6 @@
 0x00A5蟠龍玉帶
 0x01D4漱玉香囊</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重做挑战boss剧情，韩千秀单挑（普攻无法击杀，需要烈法符+破邪银针），BOSS重新调色。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重做挑战boss剧情，BOSS零防满抗，真胤需要连击武器反击+高攻武器释放金刚法輪（设置一个机关，需要有偶数个我方单位越过XX线触发计数，否则每回合触发全员掉血事件）BOSS重新调色。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣将拥有一个完全一样的分身，两个死亡其一，就结束战斗，两个死亡均掉落青龙道装。触发剑圣真身挑战时，紫枫全程无法移动出限定区域。考虑做成宝藏关。20回合内结束战斗，可以获得七环剑婴。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重做隐藏道具获取剧情，空中所有地形均有陷阱，中间留1个宝箱落脚点。需要揽风+蓄力踩上宝箱，才能免除机关触发。考虑到式鬼bug，该事件不能由式鬼触发。重做地形，平平无法一回合蓄力走上台阶，需要日轮/低防队友送死，掩护前行。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3487,6 +3471,43 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 远94 超94 枫91 胤93 秀91 蓉93 仪93</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>99 月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 远95 超96 枫95 胤93 秀95 蓉94 仪95</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3890,7 +3911,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3911,7 +3932,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5">
       <c r="A1" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -4572,10 +4593,10 @@
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.5">
@@ -4589,13 +4610,10 @@
         <v>11</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="28.5">
@@ -4609,13 +4627,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="28.5">
@@ -4629,13 +4644,10 @@
         <v>11</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="28.5">
@@ -4648,8 +4660,11 @@
       <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>146</v>
+      <c r="E29" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="28.5">
@@ -4660,7 +4675,7 @@
         <v>100</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28.5">
@@ -4671,7 +4686,7 @@
         <v>110</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="28.5">
@@ -4682,7 +4697,7 @@
         <v>110</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75">
@@ -4696,7 +4711,7 @@
         <v>117</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="28.5">
@@ -4707,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="28.5">
@@ -4718,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="273" customHeight="1">
@@ -4735,7 +4750,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="28.5">

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
   <si>
     <t>核心等级参考
 (隐藏等级+战场等级）</t>
@@ -3911,7 +3911,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26:K29"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4674,6 +4674,9 @@
       <c r="B30" s="1">
         <v>100</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="K30" s="2" t="s">
         <v>143</v>
       </c>

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="158">
   <si>
     <t>核心等级参考
 (隐藏等级+战场等级）</t>
@@ -3155,10 +3155,6 @@
 0x00A5蟠龍玉帶
 0x01D4漱玉香囊</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷级关卡。老头可控。参考七色璎珞判定和移除事件，新增一个事件触发点【X回合之前达到可触发】，每有1个八络血参/冰核仙实，替换成2个对应的升级品，最多触发5次。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3509,6 +3505,10 @@
       </rPr>
       <t xml:space="preserve"> 远95 超96 枫95 胤93 秀95 蓉94 仪95</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有人满级</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3911,7 +3911,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3932,7 +3932,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5">
       <c r="A1" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -4593,10 +4593,10 @@
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.5">
@@ -4610,10 +4610,10 @@
         <v>11</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="28.5">
@@ -4627,10 +4627,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="28.5">
@@ -4644,10 +4644,10 @@
         <v>11</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="28.5">
@@ -4661,10 +4661,10 @@
         <v>11</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="28.5">
@@ -4677,8 +4677,11 @@
       <c r="D30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>143</v>
+      <c r="E30" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28.5">
@@ -4689,7 +4692,7 @@
         <v>110</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="28.5">
@@ -4700,7 +4703,7 @@
         <v>110</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="42.75">
@@ -4714,7 +4717,7 @@
         <v>117</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="28.5">
@@ -4725,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="28.5">
@@ -4736,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="273" customHeight="1">
@@ -4753,7 +4756,7 @@
         <v>122</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="28.5">

--- a/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
+++ b/相关文档/关卡设计参考&测试结果&商店贩售调整.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\reborn2\相关文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\reborn2\相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="166">
   <si>
     <t>核心等级参考
 (隐藏等级+战场等级）</t>
@@ -3509,6 +3509,32 @@
   </si>
   <si>
     <t>所有人满级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">02  00  00  00  ff  ff  21  00  24  00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02  00  00  00  ff  ff  21  00  25  00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02  00  00  00  ff  ff  21  00  26  00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02  00  00  00  ff  ff  21  00  27  00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02  00  00  00  ff  ff  21  00  28  00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02  00  00  00  ff  ff  21  00  22  00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02  00  00  00  ff  ff  21  00  23  00  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>over</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3908,10 +3934,10 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4713,6 +4739,9 @@
       <c r="B33" s="1">
         <v>1</v>
       </c>
+      <c r="C33" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="G33" s="6" t="s">
         <v>117</v>
       </c>
@@ -4727,6 +4756,9 @@
       <c r="B34" s="1">
         <v>1</v>
       </c>
+      <c r="C34" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K34" s="2" t="s">
         <v>146</v>
       </c>
@@ -4738,6 +4770,9 @@
       <c r="B35" s="1">
         <v>1</v>
       </c>
+      <c r="C35" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="K35" s="2" t="s">
         <v>147</v>
       </c>
@@ -4750,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>122</v>
@@ -4766,6 +4801,9 @@
       <c r="B37" s="1">
         <v>1</v>
       </c>
+      <c r="C37" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>124</v>
       </c>
@@ -4777,6 +4815,9 @@
       <c r="B38" s="1">
         <v>1</v>
       </c>
+      <c r="C38" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>126</v>
       </c>
@@ -4788,6 +4829,9 @@
       <c r="B39" s="1">
         <v>1</v>
       </c>
+      <c r="C39" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>128</v>
       </c>
@@ -4799,6 +4843,9 @@
       <c r="B40" s="1">
         <v>1</v>
       </c>
+      <c r="C40" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>130</v>
       </c>
@@ -4809,6 +4856,9 @@
       </c>
       <c r="B41" s="1">
         <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>132</v>
